--- a/Code/Results/Cases/Case_5_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.83890740682512</v>
+        <v>26.84190381231963</v>
       </c>
       <c r="C2">
-        <v>12.12571730316567</v>
+        <v>15.27742454473773</v>
       </c>
       <c r="D2">
-        <v>7.63173141297461</v>
+        <v>2.964373938914873</v>
       </c>
       <c r="E2">
-        <v>8.863961773797021</v>
+        <v>5.975648813916785</v>
       </c>
       <c r="F2">
-        <v>63.51536391458911</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>44.74491872594552</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.12747240149543</v>
+        <v>5.86901283563568</v>
       </c>
       <c r="K2">
-        <v>17.58004934332881</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>11.19155742463741</v>
+        <v>6.741911288698279</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>15.74635549867209</v>
+      </c>
+      <c r="N2">
+        <v>16.06522374863915</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.26849471772461</v>
+        <v>25.37036150799273</v>
       </c>
       <c r="C3">
-        <v>11.2193870100751</v>
+        <v>14.16769389925905</v>
       </c>
       <c r="D3">
-        <v>7.295856371664942</v>
+        <v>2.761655609916956</v>
       </c>
       <c r="E3">
-        <v>8.358632142846563</v>
+        <v>5.906771070416013</v>
       </c>
       <c r="F3">
-        <v>59.71726309340766</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>43.53204268456081</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.656632194008399</v>
+        <v>5.901529490151381</v>
       </c>
       <c r="K3">
-        <v>16.26531950554956</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>10.37194852856079</v>
+        <v>6.685167623369405</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.20711870699528</v>
+      </c>
+      <c r="N3">
+        <v>16.2654019076311</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.2646729051049</v>
+        <v>24.44768739852615</v>
       </c>
       <c r="C4">
-        <v>10.64071869707701</v>
+        <v>13.45395504266329</v>
       </c>
       <c r="D4">
-        <v>7.087206213673338</v>
+        <v>2.710334400170336</v>
       </c>
       <c r="E4">
-        <v>8.044810384518167</v>
+        <v>5.864683464613106</v>
       </c>
       <c r="F4">
-        <v>57.32730510325656</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>42.81374710640542</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.366266169794166</v>
+        <v>5.92194300889351</v>
       </c>
       <c r="K4">
-        <v>15.42378600584497</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>9.84755135657427</v>
+        <v>6.653640648552371</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.87912322921888</v>
+      </c>
+      <c r="N4">
+        <v>16.39287253228642</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.84534489388656</v>
+        <v>24.06721075364995</v>
       </c>
       <c r="C5">
-        <v>10.39908128519748</v>
+        <v>13.15482820446922</v>
       </c>
       <c r="D5">
-        <v>7.001543029263817</v>
+        <v>2.691919004275032</v>
       </c>
       <c r="E5">
-        <v>7.916089296842094</v>
+        <v>5.84756105292854</v>
       </c>
       <c r="F5">
-        <v>56.33886198556901</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>42.52766332680352</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.247655252586332</v>
+        <v>5.930380489906504</v>
       </c>
       <c r="K5">
-        <v>15.07191743316353</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>9.628339289557745</v>
+        <v>6.641608672083252</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.74635974159046</v>
+      </c>
+      <c r="N5">
+        <v>16.44594502111196</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.77508789881896</v>
+        <v>24.0037739695183</v>
       </c>
       <c r="C6">
-        <v>10.35859894823407</v>
+        <v>13.10465517944775</v>
       </c>
       <c r="D6">
-        <v>6.987279791789554</v>
+        <v>2.688908408665406</v>
       </c>
       <c r="E6">
-        <v>7.894667163845138</v>
+        <v>5.844719001473944</v>
       </c>
       <c r="F6">
-        <v>56.17386114838357</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>42.48055934690609</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.227944377314639</v>
+        <v>5.931788873316331</v>
       </c>
       <c r="K6">
-        <v>15.01294151929901</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>9.591600774338209</v>
+        <v>6.639659512270231</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.72437241063813</v>
+      </c>
+      <c r="N6">
+        <v>16.45482525126883</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.25905962542788</v>
+        <v>24.44257378347357</v>
       </c>
       <c r="C7">
-        <v>10.6374837875533</v>
+        <v>13.44995457427239</v>
       </c>
       <c r="D7">
-        <v>7.086053531595653</v>
+        <v>2.710082850033559</v>
       </c>
       <c r="E7">
-        <v>8.043077689385298</v>
+        <v>5.864452458054584</v>
       </c>
       <c r="F7">
-        <v>57.31403314756667</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>42.80986205866584</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.364667626624664</v>
+        <v>5.922056310900802</v>
       </c>
       <c r="K7">
-        <v>15.41907716314647</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>9.844617565341359</v>
+        <v>6.653475102361081</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.87732893358863</v>
+      </c>
+      <c r="N7">
+        <v>16.39358374538594</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.30544184426537</v>
+        <v>26.33865937917925</v>
       </c>
       <c r="C8">
-        <v>11.8176595321426</v>
+        <v>14.90141841101027</v>
       </c>
       <c r="D8">
-        <v>7.516402039280784</v>
+        <v>2.895314866897812</v>
       </c>
       <c r="E8">
-        <v>8.69048101621788</v>
+        <v>5.951843169284248</v>
       </c>
       <c r="F8">
-        <v>62.21774699344874</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>44.32122307781666</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.9654012287677</v>
+        <v>5.880135386528216</v>
       </c>
       <c r="K8">
-        <v>17.13364554643909</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>10.91322171028548</v>
+        <v>6.721647437531909</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15.55984935929438</v>
+      </c>
+      <c r="N8">
+        <v>16.13328554328526</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.02125357888963</v>
+        <v>29.89531747368749</v>
       </c>
       <c r="C9">
-        <v>13.96883254247656</v>
+        <v>17.49808904765632</v>
       </c>
       <c r="D9">
-        <v>8.343413896833567</v>
+        <v>3.380117617413956</v>
       </c>
       <c r="E9">
-        <v>10.03944951072776</v>
+        <v>6.125992059614674</v>
       </c>
       <c r="F9">
-        <v>71.38635418782114</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>47.49655912726772</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.1336248811183</v>
+        <v>5.801182263954832</v>
       </c>
       <c r="K9">
-        <v>20.24011530381877</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>12.85104429978361</v>
+        <v>6.882467881527961</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16.91868408436929</v>
+      </c>
+      <c r="N9">
+        <v>15.66015749700011</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.59891260437469</v>
+        <v>32.40385592362916</v>
       </c>
       <c r="C10">
-        <v>15.47085488633463</v>
+        <v>19.26515317706975</v>
       </c>
       <c r="D10">
-        <v>8.945808270358112</v>
+        <v>3.720831729771603</v>
       </c>
       <c r="E10">
-        <v>11.10382610710421</v>
+        <v>6.25750817294498</v>
       </c>
       <c r="F10">
-        <v>77.88768404816864</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>49.96443870535357</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.98934097392101</v>
+        <v>5.744692529681974</v>
       </c>
       <c r="K10">
-        <v>22.39298122456513</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>14.19520212190632</v>
+        <v>7.018437059417587</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17.92575966605864</v>
+      </c>
+      <c r="N10">
+        <v>15.33735415727531</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.74670429710377</v>
+        <v>33.52298737646963</v>
       </c>
       <c r="C11">
-        <v>16.14298585889939</v>
+        <v>20.0415155366845</v>
       </c>
       <c r="D11">
-        <v>9.220486914535494</v>
+        <v>3.873401340950303</v>
       </c>
       <c r="E11">
-        <v>11.57721160629382</v>
+        <v>6.318619543272716</v>
       </c>
       <c r="F11">
-        <v>80.80934294908633</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>51.1190031956652</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.37981896530544</v>
+        <v>5.719205428480433</v>
       </c>
       <c r="K11">
-        <v>23.35159475959544</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>14.7940179319791</v>
+        <v>7.084483499417359</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18.38564014377492</v>
+      </c>
+      <c r="N11">
+        <v>15.19652625125522</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.17864171255246</v>
+        <v>33.94378070985929</v>
       </c>
       <c r="C12">
-        <v>16.39651217918713</v>
+        <v>20.3318465547107</v>
       </c>
       <c r="D12">
-        <v>9.324797444335562</v>
+        <v>3.930919768972668</v>
       </c>
       <c r="E12">
-        <v>11.75527326786033</v>
+        <v>6.341996153411186</v>
       </c>
       <c r="F12">
-        <v>81.91233646550418</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>51.56111898395097</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.52808507683406</v>
+        <v>5.709573245971747</v>
       </c>
       <c r="K12">
-        <v>23.71237483502566</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>15.01943242200681</v>
+        <v>7.110127750314904</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18.56007089161364</v>
+      </c>
+      <c r="N12">
+        <v>15.14413466322692</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.08572095773077</v>
+        <v>33.85328493602582</v>
       </c>
       <c r="C13">
-        <v>16.34194394551126</v>
+        <v>20.26947628144513</v>
       </c>
       <c r="D13">
-        <v>9.302315321163666</v>
+        <v>3.91854192343555</v>
       </c>
       <c r="E13">
-        <v>11.71697140793936</v>
+        <v>6.336950233315999</v>
       </c>
       <c r="F13">
-        <v>81.67490339795361</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>51.46567692497808</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.49613104054781</v>
+        <v>5.711647043606547</v>
       </c>
       <c r="K13">
-        <v>23.63475967748823</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>14.97093653513995</v>
+        <v>7.104576063132999</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18.52249053431687</v>
+      </c>
+      <c r="N13">
+        <v>15.15537514135538</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.78228871034517</v>
+        <v>33.55766506274771</v>
       </c>
       <c r="C14">
-        <v>16.16385962763239</v>
+        <v>20.0654727864838</v>
       </c>
       <c r="D14">
-        <v>9.229061317507947</v>
+        <v>3.878137974698468</v>
       </c>
       <c r="E14">
-        <v>11.59188259048245</v>
+        <v>6.320537720997094</v>
       </c>
       <c r="F14">
-        <v>80.90014253913914</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>51.15527576073961</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.39200729966955</v>
+        <v>5.718412665581108</v>
       </c>
       <c r="K14">
-        <v>23.38131608323561</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>14.81258678560238</v>
+        <v>7.086580368266973</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18.39998464741928</v>
+      </c>
+      <c r="N14">
+        <v>15.19219671769751</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.59610385780864</v>
+        <v>33.37620563806611</v>
       </c>
       <c r="C15">
-        <v>16.05466844841724</v>
+        <v>19.94004741327845</v>
       </c>
       <c r="D15">
-        <v>9.18423659727779</v>
+        <v>3.853358985190531</v>
       </c>
       <c r="E15">
-        <v>11.51511765682635</v>
+        <v>6.310516835491138</v>
       </c>
       <c r="F15">
-        <v>80.42520095123831</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>50.96579647935048</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.32828873236901</v>
+        <v>5.72255895864959</v>
       </c>
       <c r="K15">
-        <v>23.22580972321027</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>14.71543370215347</v>
+        <v>7.075641039455498</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>18.32498487411443</v>
+      </c>
+      <c r="N15">
+        <v>15.21487541380045</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.52347220138965</v>
+        <v>32.33028725449977</v>
       </c>
       <c r="C16">
-        <v>15.42675442867675</v>
+        <v>19.21388701786656</v>
       </c>
       <c r="D16">
-        <v>8.927886489003628</v>
+        <v>3.710819732074189</v>
       </c>
       <c r="E16">
-        <v>11.0727005712632</v>
+        <v>6.253544362239978</v>
       </c>
       <c r="F16">
-        <v>77.69616649700838</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>49.8896521384011</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.96386429616844</v>
+        <v>5.746361492554806</v>
       </c>
       <c r="K16">
-        <v>22.32997753920007</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>14.15585203805299</v>
+        <v>7.014207682512358</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>17.89574250257845</v>
+      </c>
+      <c r="N16">
+        <v>15.34668442954604</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.8596538725345</v>
+        <v>31.68310123262317</v>
       </c>
       <c r="C17">
-        <v>15.03908976645834</v>
+        <v>18.7615666410889</v>
       </c>
       <c r="D17">
-        <v>8.770917289988688</v>
+        <v>3.622816987640718</v>
       </c>
       <c r="E17">
-        <v>10.79875583241583</v>
+        <v>6.21895580890643</v>
       </c>
       <c r="F17">
-        <v>76.01392832024447</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>49.23783957946513</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.74074921007467</v>
+        <v>5.761010020223296</v>
       </c>
       <c r="K17">
-        <v>21.77559483677515</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>13.8096364445786</v>
+        <v>6.97761484583897</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17.63287582331236</v>
+      </c>
+      <c r="N17">
+        <v>15.42913212971462</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.47544833226426</v>
+        <v>31.30876886712138</v>
       </c>
       <c r="C18">
-        <v>14.81502342498616</v>
+        <v>18.4987972798066</v>
       </c>
       <c r="D18">
-        <v>8.680678589259504</v>
+        <v>3.571965771086099</v>
       </c>
       <c r="E18">
-        <v>10.64014825247605</v>
+        <v>6.199178782667232</v>
       </c>
       <c r="F18">
-        <v>75.04284384931451</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>48.8659132106917</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.61251534872206</v>
+        <v>5.769455998596986</v>
       </c>
       <c r="K18">
-        <v>21.45472383721853</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>13.60927858220169</v>
+        <v>6.956960215697354</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17.48184297938275</v>
+      </c>
+      <c r="N18">
+        <v>15.47711505275456</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.34492823551999</v>
+        <v>31.18166415568876</v>
       </c>
       <c r="C19">
-        <v>14.73895430491045</v>
+        <v>18.40937216867117</v>
       </c>
       <c r="D19">
-        <v>8.650127869728124</v>
+        <v>3.554705596751283</v>
       </c>
       <c r="E19">
-        <v>10.58625781533391</v>
+        <v>6.192501379458023</v>
       </c>
       <c r="F19">
-        <v>74.71340298664236</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>48.74048900394324</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.56910836573925</v>
+        <v>5.772319502931348</v>
       </c>
       <c r="K19">
-        <v>21.34571745473782</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>13.54121768785484</v>
+        <v>6.95003347780778</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17.43073322616995</v>
+      </c>
+      <c r="N19">
+        <v>15.49345570382845</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.9305606508552</v>
+        <v>31.75221048241822</v>
       </c>
       <c r="C20">
-        <v>15.08046632311264</v>
+        <v>18.80998471316172</v>
       </c>
       <c r="D20">
-        <v>8.787620888540721</v>
+        <v>3.632208664957111</v>
       </c>
       <c r="E20">
-        <v>10.82802319250492</v>
+        <v>6.222625330480619</v>
       </c>
       <c r="F20">
-        <v>76.19335695181366</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>49.30691586428329</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.76448885120625</v>
+        <v>5.759448610036408</v>
       </c>
       <c r="K20">
-        <v>21.83481230262514</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>13.84661520432075</v>
+        <v>6.981469374525469</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>17.66084165698705</v>
+      </c>
+      <c r="N20">
+        <v>15.42029688257555</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.87147980433823</v>
+        <v>33.64457531453893</v>
       </c>
       <c r="C21">
-        <v>16.21618883544661</v>
+        <v>20.12549037065041</v>
       </c>
       <c r="D21">
-        <v>9.250567874851514</v>
+        <v>3.890011744530555</v>
       </c>
       <c r="E21">
-        <v>11.62865356784303</v>
+        <v>6.325351650163627</v>
       </c>
       <c r="F21">
-        <v>81.12778349149983</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>51.24631183786887</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.42257789600435</v>
+        <v>5.716425011067811</v>
       </c>
       <c r="K21">
-        <v>23.45581222811631</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>14.85913015158258</v>
+        <v>7.091848665109437</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>18.43595943260923</v>
+      </c>
+      <c r="N21">
+        <v>15.18135524792245</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.124749122307</v>
+        <v>34.86402182662274</v>
       </c>
       <c r="C22">
-        <v>16.953030710655</v>
+        <v>20.96408003950427</v>
       </c>
       <c r="D22">
-        <v>9.554991248941535</v>
+        <v>4.057060521278466</v>
       </c>
       <c r="E22">
-        <v>12.14514302566139</v>
+        <v>6.393889215206</v>
       </c>
       <c r="F22">
-        <v>84.33425745117981</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>52.54265442842546</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.85517745937697</v>
+        <v>5.688412555020101</v>
       </c>
       <c r="K22">
-        <v>24.50272611837225</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>15.51332966906097</v>
+        <v>7.167700968716714</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>18.94424424878241</v>
+      </c>
+      <c r="N22">
+        <v>15.03069983114807</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.4569150914805</v>
+        <v>34.21468431939881</v>
       </c>
       <c r="C23">
-        <v>16.56002404675434</v>
+        <v>20.51833819750413</v>
       </c>
       <c r="D23">
-        <v>9.392262184831223</v>
+        <v>3.968000835172694</v>
       </c>
       <c r="E23">
-        <v>11.86996516016641</v>
+        <v>6.357162364621498</v>
       </c>
       <c r="F23">
-        <v>82.6238648929961</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>51.84799841199569</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.62396576177058</v>
+        <v>5.703357640588295</v>
       </c>
       <c r="K23">
-        <v>23.94481991688337</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>15.16467686954399</v>
+        <v>7.126865838930578</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>18.67278607260842</v>
+      </c>
+      <c r="N23">
+        <v>15.11057541921194</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.8985117561331</v>
+        <v>31.72097323056715</v>
       </c>
       <c r="C24">
-        <v>15.0617637412028</v>
+        <v>18.78810340996423</v>
       </c>
       <c r="D24">
-        <v>8.780069190666856</v>
+        <v>3.627963495711676</v>
       </c>
       <c r="E24">
-        <v>10.81479491186711</v>
+        <v>6.220966005836106</v>
       </c>
       <c r="F24">
-        <v>76.11224967746378</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>49.27567774794305</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.75375605723414</v>
+        <v>5.760154446938527</v>
       </c>
       <c r="K24">
-        <v>21.80804683493319</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>13.8299012340905</v>
+        <v>6.979725551166985</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17.64819801662222</v>
+      </c>
+      <c r="N24">
+        <v>15.42428948823356</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.04518075711471</v>
+        <v>28.95141361144228</v>
       </c>
       <c r="C25">
-        <v>13.40238079606081</v>
+        <v>16.821254317856</v>
       </c>
       <c r="D25">
-        <v>8.121073950504007</v>
+        <v>3.251960691994713</v>
       </c>
       <c r="E25">
-        <v>9.635888441284951</v>
+        <v>6.078405291368098</v>
       </c>
       <c r="F25">
-        <v>68.95112303587935</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>46.61446194368116</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.81845138743571</v>
+        <v>5.822238179494754</v>
       </c>
       <c r="K25">
-        <v>19.42462990085548</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>12.34213965580151</v>
+        <v>6.835932045192871</v>
       </c>
       <c r="M25">
+        <v>16.54938236774268</v>
+      </c>
+      <c r="N25">
+        <v>15.78397458661626</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.84190381231963</v>
+        <v>21.08479564000464</v>
       </c>
       <c r="C2">
-        <v>15.27742454473773</v>
+        <v>14.72251892803011</v>
       </c>
       <c r="D2">
-        <v>2.964373938914873</v>
+        <v>3.984229549501136</v>
       </c>
       <c r="E2">
-        <v>5.975648813916785</v>
+        <v>11.38768064733796</v>
       </c>
       <c r="F2">
-        <v>44.74491872594552</v>
+        <v>17.80010737362801</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.86901283563568</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.741911288698279</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>15.74635549867209</v>
+        <v>18.19730006408308</v>
       </c>
       <c r="N2">
-        <v>16.06522374863915</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.56345620003488</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.37036150799273</v>
+        <v>19.72371349621596</v>
       </c>
       <c r="C3">
-        <v>14.16769389925905</v>
+        <v>13.90603788495886</v>
       </c>
       <c r="D3">
-        <v>2.761655609916956</v>
+        <v>3.862587584970274</v>
       </c>
       <c r="E3">
-        <v>5.906771070416013</v>
+        <v>10.80728570057654</v>
       </c>
       <c r="F3">
-        <v>43.53204268456081</v>
+        <v>17.18510379491582</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.901529490151381</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.685167623369405</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>15.20711870699528</v>
+        <v>17.02031059431679</v>
       </c>
       <c r="N3">
-        <v>16.2654019076311</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>13.34584731286047</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.44768739852615</v>
+        <v>18.84066801935127</v>
       </c>
       <c r="C4">
-        <v>13.45395504266329</v>
+        <v>13.3803789544464</v>
       </c>
       <c r="D4">
-        <v>2.710334400170336</v>
+        <v>3.78595551781421</v>
       </c>
       <c r="E4">
-        <v>5.864683464613106</v>
+        <v>10.45233590941415</v>
       </c>
       <c r="F4">
-        <v>42.81374710640542</v>
+        <v>16.82386269567322</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.92194300889351</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.653640648552371</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>14.87912322921888</v>
+        <v>16.2593126428031</v>
       </c>
       <c r="N4">
-        <v>16.39287253228642</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>13.23297296155912</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.06721075364995</v>
+        <v>18.46888362493881</v>
       </c>
       <c r="C5">
-        <v>13.15482820446922</v>
+        <v>13.16014502116471</v>
       </c>
       <c r="D5">
-        <v>2.691919004275032</v>
+        <v>3.754268607048162</v>
       </c>
       <c r="E5">
-        <v>5.84756105292854</v>
+        <v>10.3082256929484</v>
       </c>
       <c r="F5">
-        <v>42.52766332680352</v>
+        <v>16.68092061601343</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.930380489906504</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.641608672083252</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>14.74635974159046</v>
+        <v>15.93952212307924</v>
       </c>
       <c r="N5">
-        <v>16.44594502111196</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>13.19203722069378</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.0037739695183</v>
+        <v>18.40642750241835</v>
       </c>
       <c r="C6">
-        <v>13.10465517944775</v>
+        <v>13.12321488866556</v>
       </c>
       <c r="D6">
-        <v>2.688908408665406</v>
+        <v>3.748980250683375</v>
       </c>
       <c r="E6">
-        <v>5.844719001473944</v>
+        <v>10.28433436879371</v>
       </c>
       <c r="F6">
-        <v>42.48055934690609</v>
+        <v>16.65744702209982</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.931788873316331</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.639659512270231</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>14.72437241063813</v>
+        <v>15.88583573862908</v>
       </c>
       <c r="N6">
-        <v>16.45482525126883</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>13.18554062495067</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.44257378347357</v>
+        <v>18.83570236809314</v>
       </c>
       <c r="C7">
-        <v>13.44995457427239</v>
+        <v>13.37743304494097</v>
       </c>
       <c r="D7">
-        <v>2.710082850033559</v>
+        <v>3.785529992523044</v>
       </c>
       <c r="E7">
-        <v>5.864452458054584</v>
+        <v>10.4503899665053</v>
       </c>
       <c r="F7">
-        <v>42.80986205866584</v>
+        <v>16.82191746417121</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.922056310900802</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.653475102361081</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>14.87732893358863</v>
+        <v>16.25503906421673</v>
       </c>
       <c r="N7">
-        <v>16.39358374538594</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>13.23240061426635</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.33865937917925</v>
+        <v>20.62529457880909</v>
       </c>
       <c r="C8">
-        <v>14.90141841101027</v>
+        <v>14.44609637588987</v>
       </c>
       <c r="D8">
-        <v>2.895314866897812</v>
+        <v>3.942707755007188</v>
       </c>
       <c r="E8">
-        <v>5.951843169284248</v>
+        <v>11.18736492434307</v>
       </c>
       <c r="F8">
-        <v>44.32122307781666</v>
+        <v>17.58474790663927</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.880135386528216</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.721647437531909</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.55984935929438</v>
+        <v>17.79939805977294</v>
       </c>
       <c r="N8">
-        <v>16.13328554328526</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.48403563265024</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.89531747368749</v>
+        <v>23.76130552869366</v>
       </c>
       <c r="C9">
-        <v>17.49808904765632</v>
+        <v>16.34576125026349</v>
       </c>
       <c r="D9">
-        <v>3.380117617413956</v>
+        <v>4.234360699592194</v>
       </c>
       <c r="E9">
-        <v>6.125992059614674</v>
+        <v>12.63757488101718</v>
       </c>
       <c r="F9">
-        <v>47.49655912726772</v>
+        <v>19.20384870891148</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.801182263954832</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.882467881527961</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>16.91868408436929</v>
+        <v>20.52646849982675</v>
       </c>
       <c r="N9">
-        <v>15.66015749700011</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.1476467135502</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.40385592362916</v>
+        <v>25.84162835693107</v>
       </c>
       <c r="C10">
-        <v>19.26515317706975</v>
+        <v>17.6196970435629</v>
       </c>
       <c r="D10">
-        <v>3.720831729771603</v>
+        <v>4.437224236711003</v>
       </c>
       <c r="E10">
-        <v>6.25750817294498</v>
+        <v>13.88097934276732</v>
       </c>
       <c r="F10">
-        <v>49.96443870535357</v>
+        <v>20.46004794339274</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.744692529681974</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.018437059417587</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>17.92575966605864</v>
+        <v>22.35096114200665</v>
       </c>
       <c r="N10">
-        <v>15.33735415727531</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.74497519057187</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.52298737646963</v>
+        <v>26.74049458103558</v>
       </c>
       <c r="C11">
-        <v>20.0415155366845</v>
+        <v>18.17270190731596</v>
       </c>
       <c r="D11">
-        <v>3.873401340950303</v>
+        <v>4.526820366247249</v>
       </c>
       <c r="E11">
-        <v>6.318619543272716</v>
+        <v>14.46460177115514</v>
       </c>
       <c r="F11">
-        <v>51.1190031956652</v>
+        <v>21.04453287452283</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.719205428480433</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.084483499417359</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>18.38564014377492</v>
+        <v>23.14334490995804</v>
       </c>
       <c r="N11">
-        <v>15.19652625125522</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.04145210847393</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.94378070985929</v>
+        <v>27.074140195393</v>
       </c>
       <c r="C12">
-        <v>20.3318465547107</v>
+        <v>18.37830738913878</v>
       </c>
       <c r="D12">
-        <v>3.930919768972668</v>
+        <v>4.5603477875145</v>
       </c>
       <c r="E12">
-        <v>6.341996153411186</v>
+        <v>14.68331565756473</v>
       </c>
       <c r="F12">
-        <v>51.56111898395097</v>
+        <v>21.26764642851523</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.709573245971747</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.110127750314904</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>18.56007089161364</v>
+        <v>23.43811344525626</v>
       </c>
       <c r="N12">
-        <v>15.14413466322692</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.15733367399519</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.85328493602582</v>
+        <v>27.00258163687063</v>
       </c>
       <c r="C13">
-        <v>20.26947628144513</v>
+        <v>18.3341955617944</v>
       </c>
       <c r="D13">
-        <v>3.91854192343555</v>
+        <v>4.55314507341259</v>
       </c>
       <c r="E13">
-        <v>6.336950233315999</v>
+        <v>14.63631123156993</v>
       </c>
       <c r="F13">
-        <v>51.46567692497808</v>
+        <v>21.219516824522</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.711647043606547</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.104576063132999</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>18.52249053431687</v>
+        <v>23.37486307386444</v>
       </c>
       <c r="N13">
-        <v>15.15537514135538</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.13221507474504</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.55766506274771</v>
+        <v>26.76807823427108</v>
       </c>
       <c r="C14">
-        <v>20.0654727864838</v>
+        <v>18.18969337217807</v>
       </c>
       <c r="D14">
-        <v>3.878137974698468</v>
+        <v>4.529586788790738</v>
       </c>
       <c r="E14">
-        <v>6.320537720997094</v>
+        <v>14.4826405642087</v>
       </c>
       <c r="F14">
-        <v>51.15527576073961</v>
+        <v>21.06285326954268</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.718412665581108</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.086580368266973</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>18.39998464741928</v>
+        <v>23.1677010102324</v>
       </c>
       <c r="N14">
-        <v>15.19219671769751</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.05091308023004</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.37620563806611</v>
+        <v>26.62356386550866</v>
       </c>
       <c r="C15">
-        <v>19.94004741327845</v>
+        <v>18.10068646917602</v>
       </c>
       <c r="D15">
-        <v>3.853358985190531</v>
+        <v>4.51510410583419</v>
       </c>
       <c r="E15">
-        <v>6.310516835491138</v>
+        <v>14.38821882712384</v>
       </c>
       <c r="F15">
-        <v>50.96579647935048</v>
+        <v>20.96712214695791</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.72255895864959</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.075641039455498</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>18.32498487411443</v>
+        <v>23.04012297992011</v>
       </c>
       <c r="N15">
-        <v>15.21487541380045</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.00158513451592</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.33028725449977</v>
+        <v>25.78193755431955</v>
       </c>
       <c r="C16">
-        <v>19.21388701786656</v>
+        <v>17.58302365096778</v>
       </c>
       <c r="D16">
-        <v>3.710819732074189</v>
+        <v>4.431313555630685</v>
       </c>
       <c r="E16">
-        <v>6.253544362239978</v>
+        <v>13.84250978684835</v>
       </c>
       <c r="F16">
-        <v>49.8896521384011</v>
+        <v>20.42210415469318</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.746361492554806</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.014207682512358</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>17.89574250257845</v>
+        <v>22.29843019073566</v>
       </c>
       <c r="N16">
-        <v>15.34668442954604</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.72610247929157</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.68310123262317</v>
+        <v>25.25352846307818</v>
       </c>
       <c r="C17">
-        <v>18.7615666410889</v>
+        <v>17.2586641245384</v>
       </c>
       <c r="D17">
-        <v>3.622816987640718</v>
+        <v>4.37921136762174</v>
       </c>
       <c r="E17">
-        <v>6.21895580890643</v>
+        <v>13.50350316182928</v>
       </c>
       <c r="F17">
-        <v>49.23783957946513</v>
+        <v>20.09101627580976</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.761010020223296</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.97761484583897</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>17.63287582331236</v>
+        <v>21.83387655314948</v>
       </c>
       <c r="N17">
-        <v>15.42913212971462</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.56348227767065</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.30876886712138</v>
+        <v>24.9451260972639</v>
       </c>
       <c r="C18">
-        <v>18.4987972798066</v>
+        <v>17.06960405732824</v>
       </c>
       <c r="D18">
-        <v>3.571965771086099</v>
+        <v>4.348991266259819</v>
       </c>
       <c r="E18">
-        <v>6.199178782667232</v>
+        <v>13.30691843762343</v>
       </c>
       <c r="F18">
-        <v>48.8659132106917</v>
+        <v>19.90181386413929</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.769455998596986</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.956960215697354</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>17.48184297938275</v>
+        <v>21.56313206077806</v>
       </c>
       <c r="N18">
-        <v>15.47711505275456</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.47227448268132</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.18166415568876</v>
+        <v>24.83993502523636</v>
       </c>
       <c r="C19">
-        <v>18.40937216867117</v>
+        <v>17.00516269245239</v>
       </c>
       <c r="D19">
-        <v>3.554705596751283</v>
+        <v>4.338716408257428</v>
       </c>
       <c r="E19">
-        <v>6.192501379458023</v>
+        <v>13.24008020829161</v>
       </c>
       <c r="F19">
-        <v>48.74048900394324</v>
+        <v>19.83796784000242</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.772319502931348</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.95003347780778</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>17.43073322616995</v>
+        <v>21.47085038281369</v>
       </c>
       <c r="N19">
-        <v>15.49345570382845</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.44179100316858</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.75221048241822</v>
+        <v>25.31024106176456</v>
       </c>
       <c r="C20">
-        <v>18.80998471316172</v>
+        <v>17.29345117351259</v>
       </c>
       <c r="D20">
-        <v>3.632208664957111</v>
+        <v>4.384783959093975</v>
       </c>
       <c r="E20">
-        <v>6.222625330480619</v>
+        <v>13.53975538719212</v>
       </c>
       <c r="F20">
-        <v>49.30691586428329</v>
+        <v>20.12613455217469</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.759448610036408</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.981469374525469</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>17.66084165698705</v>
+        <v>21.88369523674071</v>
       </c>
       <c r="N20">
-        <v>15.42029688257555</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.58055222517557</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.64457531453893</v>
+        <v>26.83713958587906</v>
       </c>
       <c r="C21">
-        <v>20.12549037065041</v>
+        <v>18.23224032319265</v>
       </c>
       <c r="D21">
-        <v>3.890011744530555</v>
+        <v>4.53651740139684</v>
       </c>
       <c r="E21">
-        <v>6.325351650163627</v>
+        <v>14.52783836506531</v>
       </c>
       <c r="F21">
-        <v>51.24631183786887</v>
+        <v>21.10882137771934</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.716425011067811</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.091848665109437</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>18.43595943260923</v>
+        <v>23.22869211936664</v>
       </c>
       <c r="N21">
-        <v>15.18135524792245</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.07469502254352</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.86402182662274</v>
+        <v>27.79584568560946</v>
       </c>
       <c r="C22">
-        <v>20.96408003950427</v>
+        <v>18.82362467526375</v>
       </c>
       <c r="D22">
-        <v>4.057060521278466</v>
+        <v>4.633343925787021</v>
       </c>
       <c r="E22">
-        <v>6.393889215206</v>
+        <v>15.16033117641724</v>
       </c>
       <c r="F22">
-        <v>52.54265442842546</v>
+        <v>21.76142985906336</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.688412555020101</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.167700968716714</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>18.94424424878241</v>
+        <v>24.07695373929631</v>
       </c>
       <c r="N22">
-        <v>15.03069983114807</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.41872162512588</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.21468431939881</v>
+        <v>27.28772102552911</v>
       </c>
       <c r="C23">
-        <v>20.51833819750413</v>
+        <v>18.51001435875013</v>
       </c>
       <c r="D23">
-        <v>3.968000835172694</v>
+        <v>4.581883843886166</v>
       </c>
       <c r="E23">
-        <v>6.357162364621498</v>
+        <v>14.8239223365764</v>
       </c>
       <c r="F23">
-        <v>51.84799841199569</v>
+        <v>21.41219420735851</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.703357640588295</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.126865838930578</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>18.67278607260842</v>
+        <v>23.62699481236406</v>
       </c>
       <c r="N23">
-        <v>15.11057541921194</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.2331636222346</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.72097323056715</v>
+        <v>25.28461567106834</v>
       </c>
       <c r="C24">
-        <v>18.78810340996423</v>
+        <v>17.27773198973074</v>
       </c>
       <c r="D24">
-        <v>3.627963495711676</v>
+        <v>4.382265417468913</v>
       </c>
       <c r="E24">
-        <v>6.220966005836106</v>
+        <v>13.52337101531266</v>
       </c>
       <c r="F24">
-        <v>49.27567774794305</v>
+        <v>20.11025400738242</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.760154446938527</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.979725551166985</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>17.64819801662222</v>
+        <v>21.86118363850302</v>
       </c>
       <c r="N24">
-        <v>15.42428948823356</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.57282778956925</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.95141361144228</v>
+        <v>22.95253892713997</v>
       </c>
       <c r="C25">
-        <v>16.821254317856</v>
+        <v>15.85314158311184</v>
       </c>
       <c r="D25">
-        <v>3.251960691994713</v>
+        <v>4.157382497175656</v>
       </c>
       <c r="E25">
-        <v>6.078405291368098</v>
+        <v>12.24545028133722</v>
       </c>
       <c r="F25">
-        <v>46.61446194368116</v>
+        <v>18.75356596612315</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.822238179494754</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.835932045192871</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>16.54938236774268</v>
+        <v>19.82055827906001</v>
       </c>
       <c r="N25">
-        <v>15.78397458661626</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.9492009846737</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.08479564000464</v>
+        <v>12.79505811484147</v>
       </c>
       <c r="C2">
-        <v>14.72251892803011</v>
+        <v>9.253429113418647</v>
       </c>
       <c r="D2">
-        <v>3.984229549501136</v>
+        <v>4.057763500715986</v>
       </c>
       <c r="E2">
-        <v>11.38768064733796</v>
+        <v>11.54444127637291</v>
       </c>
       <c r="F2">
-        <v>17.80010737362801</v>
+        <v>21.21162353542267</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.19730006408308</v>
+        <v>14.5377232406679</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.56345620003488</v>
+        <v>18.84733671906806</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.72371349621596</v>
+        <v>12.14100485638195</v>
       </c>
       <c r="C3">
-        <v>13.90603788495886</v>
+        <v>8.82313187892489</v>
       </c>
       <c r="D3">
-        <v>3.862587584970274</v>
+        <v>4.015209686612629</v>
       </c>
       <c r="E3">
-        <v>10.80728570057654</v>
+        <v>11.47080857032227</v>
       </c>
       <c r="F3">
-        <v>17.18510379491582</v>
+        <v>21.20815380122425</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.02031059431679</v>
+        <v>14.22207651298682</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.34584731286047</v>
+        <v>18.91520893882586</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.84066801935127</v>
+        <v>11.72132454061443</v>
       </c>
       <c r="C4">
-        <v>13.3803789544464</v>
+        <v>8.54667729497978</v>
       </c>
       <c r="D4">
-        <v>3.78595551781421</v>
+        <v>3.988735954430699</v>
       </c>
       <c r="E4">
-        <v>10.45233590941415</v>
+        <v>11.43049684559042</v>
       </c>
       <c r="F4">
-        <v>16.82386269567322</v>
+        <v>21.21499624123008</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.2593126428031</v>
+        <v>14.02759131164497</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.23297296155912</v>
+        <v>18.96380518993152</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.46888362493881</v>
+        <v>11.54593226385338</v>
       </c>
       <c r="C5">
-        <v>13.16014502116471</v>
+        <v>8.431038499509045</v>
       </c>
       <c r="D5">
-        <v>3.754268607048162</v>
+        <v>3.977867639515519</v>
       </c>
       <c r="E5">
-        <v>10.3082256929484</v>
+        <v>11.41531406874007</v>
       </c>
       <c r="F5">
-        <v>16.68092061601343</v>
+        <v>21.22003410938339</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.93952212307924</v>
+        <v>13.948280266646</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.19203722069378</v>
+        <v>18.98533822511592</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.40642750241835</v>
+        <v>11.51655050331577</v>
       </c>
       <c r="C6">
-        <v>13.12321488866556</v>
+        <v>8.41165992389779</v>
       </c>
       <c r="D6">
-        <v>3.748980250683375</v>
+        <v>3.976058329993128</v>
       </c>
       <c r="E6">
-        <v>10.28433436879371</v>
+        <v>11.41286846491397</v>
       </c>
       <c r="F6">
-        <v>16.65744702209982</v>
+        <v>21.22100626224119</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.88583573862908</v>
+        <v>13.93511067659381</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.18554062495067</v>
+        <v>18.98901790345012</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.83570236809314</v>
+        <v>11.71897656887415</v>
       </c>
       <c r="C7">
-        <v>13.37743304494097</v>
+        <v>8.545129677889578</v>
       </c>
       <c r="D7">
-        <v>3.785529992523044</v>
+        <v>3.988589695610097</v>
       </c>
       <c r="E7">
-        <v>10.4503899665053</v>
+        <v>11.43028703146089</v>
       </c>
       <c r="F7">
-        <v>16.82191746417121</v>
+        <v>21.21505508632099</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.25503906421673</v>
+        <v>14.02652177273792</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.23240061426635</v>
+        <v>18.96408860366121</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.62529457880909</v>
+        <v>12.5733930474712</v>
       </c>
       <c r="C8">
-        <v>14.44609637588987</v>
+        <v>9.107659737879139</v>
       </c>
       <c r="D8">
-        <v>3.942707755007188</v>
+        <v>4.043166728446545</v>
       </c>
       <c r="E8">
-        <v>11.18736492434307</v>
+        <v>11.51804437614503</v>
       </c>
       <c r="F8">
-        <v>17.58474790663927</v>
+        <v>21.20856152742332</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.79939805977294</v>
+        <v>14.42909576005054</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.48403563265024</v>
+        <v>18.86929584529765</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.76130552869366</v>
+        <v>14.09897259975212</v>
       </c>
       <c r="C9">
-        <v>16.34576125026349</v>
+        <v>10.10999521382413</v>
       </c>
       <c r="D9">
-        <v>4.234360699592194</v>
+        <v>4.147156059211882</v>
       </c>
       <c r="E9">
-        <v>12.63757488101718</v>
+        <v>11.72831648210886</v>
       </c>
       <c r="F9">
-        <v>19.20384870891148</v>
+        <v>21.26720711000982</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.52646849982675</v>
+        <v>15.20837179561112</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.1476467135502</v>
+        <v>18.73880019948323</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.84162835693107</v>
+        <v>15.12158952834518</v>
       </c>
       <c r="C10">
-        <v>17.6196970435629</v>
+        <v>10.78109782053133</v>
       </c>
       <c r="D10">
-        <v>4.437224236711003</v>
+        <v>4.221320778085648</v>
       </c>
       <c r="E10">
-        <v>13.88097934276732</v>
+        <v>11.90497093129739</v>
       </c>
       <c r="F10">
-        <v>20.46004794339274</v>
+        <v>21.35388469130671</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.35096114200665</v>
+        <v>15.76859440031214</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.74497519057187</v>
+        <v>18.67728926618764</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.74049458103558</v>
+        <v>15.56444518437461</v>
       </c>
       <c r="C11">
-        <v>18.17270190731596</v>
+        <v>11.0716211639669</v>
       </c>
       <c r="D11">
-        <v>4.526820366247249</v>
+        <v>4.254495616632545</v>
       </c>
       <c r="E11">
-        <v>14.46460177115514</v>
+        <v>11.98986400231102</v>
       </c>
       <c r="F11">
-        <v>21.04453287452283</v>
+        <v>21.40274170417204</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.14334490995804</v>
+        <v>16.01959224878216</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.04145210847393</v>
+        <v>18.65688088749958</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.074140195393</v>
+        <v>15.72886609835303</v>
       </c>
       <c r="C12">
-        <v>18.37830738913878</v>
+        <v>11.17947343652028</v>
       </c>
       <c r="D12">
-        <v>4.5603477875145</v>
+        <v>4.266970654267523</v>
       </c>
       <c r="E12">
-        <v>14.68331565756473</v>
+        <v>12.02263562002417</v>
       </c>
       <c r="F12">
-        <v>21.26764642851523</v>
+        <v>21.42259045991287</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.43811344525626</v>
+        <v>16.113993805704</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.15733367399519</v>
+        <v>18.65024980406709</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.00258163687063</v>
+        <v>15.69360186619621</v>
       </c>
       <c r="C13">
-        <v>18.3341955617944</v>
+        <v>11.15634225287187</v>
       </c>
       <c r="D13">
-        <v>4.55314507341259</v>
+        <v>4.264287928499031</v>
       </c>
       <c r="E13">
-        <v>14.63631123156993</v>
+        <v>12.01555034473366</v>
       </c>
       <c r="F13">
-        <v>21.219516824522</v>
+        <v>21.41825589230727</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.37486307386444</v>
+        <v>16.09369286934599</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.13221507474504</v>
+        <v>18.65162901161904</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.76807823427108</v>
+        <v>15.5780382415564</v>
       </c>
       <c r="C14">
-        <v>18.18969337217807</v>
+        <v>11.08053777710703</v>
       </c>
       <c r="D14">
-        <v>4.529586788790738</v>
+        <v>4.255523737236651</v>
       </c>
       <c r="E14">
-        <v>14.4826405642087</v>
+        <v>11.99254779010707</v>
       </c>
       <c r="F14">
-        <v>21.06285326954268</v>
+        <v>21.40434771901505</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.1677010102324</v>
+        <v>16.0273721722386</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.05091308023004</v>
+        <v>18.65631331285565</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.62356386550866</v>
+        <v>15.50682341952723</v>
       </c>
       <c r="C15">
-        <v>18.10068646917602</v>
+        <v>11.03382266644361</v>
       </c>
       <c r="D15">
-        <v>4.51510410583419</v>
+        <v>4.250143822746086</v>
       </c>
       <c r="E15">
-        <v>14.38821882712384</v>
+        <v>11.97853854586334</v>
       </c>
       <c r="F15">
-        <v>20.96712214695791</v>
+        <v>21.39600378582154</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.04012297992011</v>
+        <v>15.98666208653544</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.00158513451592</v>
+        <v>18.65932568678949</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.78193755431955</v>
+        <v>15.09219235826531</v>
       </c>
       <c r="C16">
-        <v>17.58302365096778</v>
+        <v>10.76181078693405</v>
       </c>
       <c r="D16">
-        <v>4.431313555630685</v>
+        <v>4.219140826797372</v>
       </c>
       <c r="E16">
-        <v>13.84250978684835</v>
+        <v>11.89951187626071</v>
       </c>
       <c r="F16">
-        <v>20.42210415469318</v>
+        <v>21.35088085006247</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.29843019073566</v>
+        <v>15.75210559929974</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.72610247929157</v>
+        <v>18.67877610687573</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25352846307818</v>
+        <v>14.83205648302686</v>
       </c>
       <c r="C17">
-        <v>17.2586641245384</v>
+        <v>10.5911282008131</v>
       </c>
       <c r="D17">
-        <v>4.37921136762174</v>
+        <v>4.199972533661757</v>
       </c>
       <c r="E17">
-        <v>13.50350316182928</v>
+        <v>11.85217351612617</v>
       </c>
       <c r="F17">
-        <v>20.09101627580976</v>
+        <v>21.325609088288</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.83387655314948</v>
+        <v>15.60715907849708</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.56348227767065</v>
+        <v>18.69265403353893</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.9451260972639</v>
+        <v>14.68033370125042</v>
       </c>
       <c r="C18">
-        <v>17.06960405732824</v>
+        <v>10.49156821245601</v>
       </c>
       <c r="D18">
-        <v>4.348991266259819</v>
+        <v>4.18889482260318</v>
       </c>
       <c r="E18">
-        <v>13.30691843762343</v>
+        <v>11.82537407435997</v>
       </c>
       <c r="F18">
-        <v>19.90181386413929</v>
+        <v>21.31196139605511</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.56313206077806</v>
+        <v>15.52343239917068</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.47227448268132</v>
+        <v>18.70134864789445</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.83993502523636</v>
+        <v>14.628604639902</v>
       </c>
       <c r="C19">
-        <v>17.00516269245239</v>
+        <v>10.45762186984085</v>
       </c>
       <c r="D19">
-        <v>4.338716408257428</v>
+        <v>4.185135266915941</v>
       </c>
       <c r="E19">
-        <v>13.24008020829161</v>
+        <v>11.81637461187918</v>
       </c>
       <c r="F19">
-        <v>19.83796784000242</v>
+        <v>21.30749322614087</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.47085038281369</v>
+        <v>15.4950255334012</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.44179100316858</v>
+        <v>18.70441458932848</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.31024106176456</v>
+        <v>14.85996620816981</v>
       </c>
       <c r="C20">
-        <v>17.29345117351259</v>
+        <v>10.60944160363797</v>
       </c>
       <c r="D20">
-        <v>4.384783959093975</v>
+        <v>4.20201852502425</v>
       </c>
       <c r="E20">
-        <v>13.53975538719212</v>
+        <v>11.85716862668394</v>
       </c>
       <c r="F20">
-        <v>20.12613455217469</v>
+        <v>21.32820745896986</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.88369523674071</v>
+        <v>15.62262654735224</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.58055222517557</v>
+        <v>18.6911029126054</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.83713958587906</v>
+        <v>15.61207153456377</v>
       </c>
       <c r="C21">
-        <v>18.23224032319265</v>
+        <v>11.10286235973171</v>
       </c>
       <c r="D21">
-        <v>4.53651740139684</v>
+        <v>4.258100420375614</v>
       </c>
       <c r="E21">
-        <v>14.52783836506531</v>
+        <v>11.9992874760085</v>
       </c>
       <c r="F21">
-        <v>21.10882137771934</v>
+        <v>21.40839638792806</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.22869211936664</v>
+        <v>16.04687040177872</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.07469502254352</v>
+        <v>18.65490758399702</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.79584568560946</v>
+        <v>16.08448177233268</v>
       </c>
       <c r="C22">
-        <v>18.82362467526375</v>
+        <v>11.4127226860645</v>
       </c>
       <c r="D22">
-        <v>4.633343925787021</v>
+        <v>4.294239933918202</v>
       </c>
       <c r="E22">
-        <v>15.16033117641724</v>
+        <v>12.09579638627971</v>
       </c>
       <c r="F22">
-        <v>21.76142985906336</v>
+        <v>21.46865414012586</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.07695373929631</v>
+        <v>16.32033522414057</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.41872162512588</v>
+        <v>18.63764988466402</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.28772102552911</v>
+        <v>15.83411703479728</v>
       </c>
       <c r="C23">
-        <v>18.51001435875013</v>
+        <v>11.24851018139974</v>
       </c>
       <c r="D23">
-        <v>4.581883843886166</v>
+        <v>4.275000683146545</v>
       </c>
       <c r="E23">
-        <v>14.8239223365764</v>
+        <v>12.04396540770479</v>
       </c>
       <c r="F23">
-        <v>21.41219420735851</v>
+        <v>21.43577851316295</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.62699481236406</v>
+        <v>16.17475873923043</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.2331636222346</v>
+        <v>18.6462727686422</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.28461567106834</v>
+        <v>14.84735496661258</v>
       </c>
       <c r="C24">
-        <v>17.27773198973074</v>
+        <v>10.60116657250653</v>
       </c>
       <c r="D24">
-        <v>4.382265417468913</v>
+        <v>4.201093711234425</v>
       </c>
       <c r="E24">
-        <v>13.52337101531266</v>
+        <v>11.85490903931279</v>
       </c>
       <c r="F24">
-        <v>20.11025400738242</v>
+        <v>21.32702998952216</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.86118363850302</v>
+        <v>15.61563492792558</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.57282778956925</v>
+        <v>18.69180194461336</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.95253892713997</v>
+        <v>13.70310366021947</v>
       </c>
       <c r="C25">
-        <v>15.85314158311184</v>
+        <v>9.850071848488247</v>
       </c>
       <c r="D25">
-        <v>4.157382497175656</v>
+        <v>4.119389504970804</v>
       </c>
       <c r="E25">
-        <v>12.24545028133722</v>
+        <v>11.66744963801123</v>
       </c>
       <c r="F25">
-        <v>18.75356596612315</v>
+        <v>21.24368185889139</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.82055827906001</v>
+        <v>14.99929647513908</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.9492009846737</v>
+        <v>18.76810836994687</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.79505811484147</v>
+        <v>21.08479564000459</v>
       </c>
       <c r="C2">
-        <v>9.253429113418647</v>
+        <v>14.72251892802995</v>
       </c>
       <c r="D2">
-        <v>4.057763500715986</v>
+        <v>3.984229549501264</v>
       </c>
       <c r="E2">
-        <v>11.54444127637291</v>
+        <v>11.38768064733792</v>
       </c>
       <c r="F2">
-        <v>21.21162353542267</v>
+        <v>17.80010737362808</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.5377232406679</v>
+        <v>18.19730006408306</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.84733671906806</v>
+        <v>13.563456200035</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.14100485638195</v>
+        <v>19.72371349621602</v>
       </c>
       <c r="C3">
-        <v>8.82313187892489</v>
+        <v>13.90603788495878</v>
       </c>
       <c r="D3">
-        <v>4.015209686612629</v>
+        <v>3.862587584970335</v>
       </c>
       <c r="E3">
-        <v>11.47080857032227</v>
+        <v>10.80728570057658</v>
       </c>
       <c r="F3">
-        <v>21.20815380122425</v>
+        <v>17.18510379491575</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.22207651298682</v>
+        <v>17.02031059431679</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.91520893882586</v>
+        <v>13.34584731286041</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.72132454061443</v>
+        <v>18.84066801935129</v>
       </c>
       <c r="C4">
-        <v>8.54667729497978</v>
+        <v>13.38037895444633</v>
       </c>
       <c r="D4">
-        <v>3.988735954430699</v>
+        <v>3.785955517814204</v>
       </c>
       <c r="E4">
-        <v>11.43049684559042</v>
+        <v>10.4523359094142</v>
       </c>
       <c r="F4">
-        <v>21.21499624123008</v>
+        <v>16.8238626956732</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.02759131164497</v>
+        <v>16.25931264280306</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.96380518993152</v>
+        <v>13.23297296155908</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.54593226385338</v>
+        <v>18.4688836249389</v>
       </c>
       <c r="C5">
-        <v>8.431038499509045</v>
+        <v>13.1601450211646</v>
       </c>
       <c r="D5">
-        <v>3.977867639515519</v>
+        <v>3.754268607048246</v>
       </c>
       <c r="E5">
-        <v>11.41531406874007</v>
+        <v>10.30822569294842</v>
       </c>
       <c r="F5">
-        <v>21.22003410938339</v>
+        <v>16.68092061601337</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.948280266646</v>
+        <v>15.93952212307929</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.98533822511592</v>
+        <v>13.19203722069374</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.51655050331577</v>
+        <v>18.40642750241837</v>
       </c>
       <c r="C6">
-        <v>8.41165992389779</v>
+        <v>13.12321488866555</v>
       </c>
       <c r="D6">
-        <v>3.976058329993128</v>
+        <v>3.748980250683386</v>
       </c>
       <c r="E6">
-        <v>11.41286846491397</v>
+        <v>10.2843343687937</v>
       </c>
       <c r="F6">
-        <v>21.22100626224119</v>
+        <v>16.65744702209982</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.93511067659381</v>
+        <v>15.88583573862909</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.98901790345012</v>
+        <v>13.18554062495067</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.71897656887415</v>
+        <v>18.83570236809317</v>
       </c>
       <c r="C7">
-        <v>8.545129677889578</v>
+        <v>13.37743304494098</v>
       </c>
       <c r="D7">
-        <v>3.988589695610097</v>
+        <v>3.785529992523089</v>
       </c>
       <c r="E7">
-        <v>11.43028703146089</v>
+        <v>10.45038996650531</v>
       </c>
       <c r="F7">
-        <v>21.21505508632099</v>
+        <v>16.82191746417119</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.02652177273792</v>
+        <v>16.25503906421675</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.96408860366121</v>
+        <v>13.23240061426634</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.5733930474712</v>
+        <v>20.62529457880898</v>
       </c>
       <c r="C8">
-        <v>9.107659737879139</v>
+        <v>14.44609637588988</v>
       </c>
       <c r="D8">
-        <v>4.043166728446545</v>
+        <v>3.94270775500723</v>
       </c>
       <c r="E8">
-        <v>11.51804437614503</v>
+        <v>11.1873649243431</v>
       </c>
       <c r="F8">
-        <v>21.20856152742332</v>
+        <v>17.58474790663948</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.42909576005054</v>
+        <v>17.79939805977283</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.86929584529765</v>
+        <v>13.48403563265045</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.09897259975212</v>
+        <v>23.76130552869366</v>
       </c>
       <c r="C9">
-        <v>10.10999521382413</v>
+        <v>16.34576125026358</v>
       </c>
       <c r="D9">
-        <v>4.147156059211882</v>
+        <v>4.234360699592225</v>
       </c>
       <c r="E9">
-        <v>11.72831648210886</v>
+        <v>12.63757488101717</v>
       </c>
       <c r="F9">
-        <v>21.26720711000982</v>
+        <v>19.20384870891143</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.20837179561112</v>
+        <v>20.52646849982673</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.73880019948323</v>
+        <v>14.14764671355016</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.12158952834518</v>
+        <v>25.84162835693105</v>
       </c>
       <c r="C10">
-        <v>10.78109782053133</v>
+        <v>17.61969704356279</v>
       </c>
       <c r="D10">
-        <v>4.221320778085648</v>
+        <v>4.437224236711098</v>
       </c>
       <c r="E10">
-        <v>11.90497093129739</v>
+        <v>13.88097934276737</v>
       </c>
       <c r="F10">
-        <v>21.35388469130671</v>
+        <v>20.46004794339276</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.76859440031214</v>
+        <v>22.35096114200662</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.67728926618764</v>
+        <v>14.74497519057191</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.56444518437461</v>
+        <v>26.7404945810357</v>
       </c>
       <c r="C11">
-        <v>11.0716211639669</v>
+        <v>18.17270190731591</v>
       </c>
       <c r="D11">
-        <v>4.254495616632545</v>
+        <v>4.526820366247263</v>
       </c>
       <c r="E11">
-        <v>11.98986400231102</v>
+        <v>14.46460177115513</v>
       </c>
       <c r="F11">
-        <v>21.40274170417204</v>
+        <v>21.04453287452283</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.01959224878216</v>
+        <v>23.14334490995808</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.65688088749958</v>
+        <v>15.04145210847387</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.72886609835303</v>
+        <v>27.074140195393</v>
       </c>
       <c r="C12">
-        <v>11.17947343652028</v>
+        <v>18.37830738913875</v>
       </c>
       <c r="D12">
-        <v>4.266970654267523</v>
+        <v>4.560347787514493</v>
       </c>
       <c r="E12">
-        <v>12.02263562002417</v>
+        <v>14.68331565756475</v>
       </c>
       <c r="F12">
-        <v>21.42259045991287</v>
+        <v>21.26764642851523</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.113993805704</v>
+        <v>23.43811344525625</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.65024980406709</v>
+        <v>15.15733367399518</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.69360186619621</v>
+        <v>27.00258163687062</v>
       </c>
       <c r="C13">
-        <v>11.15634225287187</v>
+        <v>18.33419556179435</v>
       </c>
       <c r="D13">
-        <v>4.264287928499031</v>
+        <v>4.553145073412638</v>
       </c>
       <c r="E13">
-        <v>12.01555034473366</v>
+        <v>14.63631123156991</v>
       </c>
       <c r="F13">
-        <v>21.41825589230727</v>
+        <v>21.21951682452202</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.09369286934599</v>
+        <v>23.37486307386441</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.65162901161904</v>
+        <v>15.13221507474508</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.5780382415564</v>
+        <v>26.76807823427105</v>
       </c>
       <c r="C14">
-        <v>11.08053777710703</v>
+        <v>18.18969337217804</v>
       </c>
       <c r="D14">
-        <v>4.255523737236651</v>
+        <v>4.529586788790764</v>
       </c>
       <c r="E14">
-        <v>11.99254779010707</v>
+        <v>14.4826405642087</v>
       </c>
       <c r="F14">
-        <v>21.40434771901505</v>
+        <v>21.06285326954274</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.0273721722386</v>
+        <v>23.16770101023238</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.65631331285565</v>
+        <v>15.05091308023012</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.50682341952723</v>
+        <v>26.62356386550869</v>
       </c>
       <c r="C15">
-        <v>11.03382266644361</v>
+        <v>18.10068646917607</v>
       </c>
       <c r="D15">
-        <v>4.250143822746086</v>
+        <v>4.515104105834271</v>
       </c>
       <c r="E15">
-        <v>11.97853854586334</v>
+        <v>14.38821882712387</v>
       </c>
       <c r="F15">
-        <v>21.39600378582154</v>
+        <v>20.96712214695791</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.98666208653544</v>
+        <v>23.04012297992013</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.65932568678949</v>
+        <v>15.00158513451592</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.09219235826531</v>
+        <v>25.78193755431954</v>
       </c>
       <c r="C16">
-        <v>10.76181078693405</v>
+        <v>17.58302365096777</v>
       </c>
       <c r="D16">
-        <v>4.219140826797372</v>
+        <v>4.431313555630766</v>
       </c>
       <c r="E16">
-        <v>11.89951187626071</v>
+        <v>13.84250978684838</v>
       </c>
       <c r="F16">
-        <v>21.35088085006247</v>
+        <v>20.42210415469314</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.75210559929974</v>
+        <v>22.29843019073567</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.67877610687573</v>
+        <v>14.72610247929151</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.83205648302686</v>
+        <v>25.25352846307814</v>
       </c>
       <c r="C17">
-        <v>10.5911282008131</v>
+        <v>17.25866412453848</v>
       </c>
       <c r="D17">
-        <v>4.199972533661757</v>
+        <v>4.37921136762174</v>
       </c>
       <c r="E17">
-        <v>11.85217351612617</v>
+        <v>13.50350316182928</v>
       </c>
       <c r="F17">
-        <v>21.325609088288</v>
+        <v>20.09101627580973</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.60715907849708</v>
+        <v>21.83387655314947</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.69265403353893</v>
+        <v>14.56348227767064</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.68033370125042</v>
+        <v>24.94512609726388</v>
       </c>
       <c r="C18">
-        <v>10.49156821245601</v>
+        <v>17.06960405732823</v>
       </c>
       <c r="D18">
-        <v>4.18889482260318</v>
+        <v>4.348991266259778</v>
       </c>
       <c r="E18">
-        <v>11.82537407435997</v>
+        <v>13.30691843762341</v>
       </c>
       <c r="F18">
-        <v>21.31196139605511</v>
+        <v>19.90181386413927</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.52343239917068</v>
+        <v>21.56313206077807</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.70134864789445</v>
+        <v>14.4722744826813</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.628604639902</v>
+        <v>24.83993502523633</v>
       </c>
       <c r="C19">
-        <v>10.45762186984085</v>
+        <v>17.00516269245239</v>
       </c>
       <c r="D19">
-        <v>4.185135266915941</v>
+        <v>4.338716408257374</v>
       </c>
       <c r="E19">
-        <v>11.81637461187918</v>
+        <v>13.24008020829168</v>
       </c>
       <c r="F19">
-        <v>21.30749322614087</v>
+        <v>19.83796784000246</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.4950255334012</v>
+        <v>21.47085038281372</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.70441458932848</v>
+        <v>14.44179100316858</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.85996620816981</v>
+        <v>25.3102410617646</v>
       </c>
       <c r="C20">
-        <v>10.60944160363797</v>
+        <v>17.29345117351262</v>
       </c>
       <c r="D20">
-        <v>4.20201852502425</v>
+        <v>4.384783959094009</v>
       </c>
       <c r="E20">
-        <v>11.85716862668394</v>
+        <v>13.53975538719213</v>
       </c>
       <c r="F20">
-        <v>21.32820745896986</v>
+        <v>20.12613455217471</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.62262654735224</v>
+        <v>21.88369523674074</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.6911029126054</v>
+        <v>14.58055222517558</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.61207153456377</v>
+        <v>26.83713958587902</v>
       </c>
       <c r="C21">
-        <v>11.10286235973171</v>
+        <v>18.2322403231928</v>
       </c>
       <c r="D21">
-        <v>4.258100420375614</v>
+        <v>4.536517401396866</v>
       </c>
       <c r="E21">
-        <v>11.9992874760085</v>
+        <v>14.52783836506532</v>
       </c>
       <c r="F21">
-        <v>21.40839638792806</v>
+        <v>21.10882137771927</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.04687040177872</v>
+        <v>23.22869211936662</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.65490758399702</v>
+        <v>15.07469502254348</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.08448177233268</v>
+        <v>27.79584568560944</v>
       </c>
       <c r="C22">
-        <v>11.4127226860645</v>
+        <v>18.82362467526362</v>
       </c>
       <c r="D22">
-        <v>4.294239933918202</v>
+        <v>4.633343925787084</v>
       </c>
       <c r="E22">
-        <v>12.09579638627971</v>
+        <v>15.16033117641723</v>
       </c>
       <c r="F22">
-        <v>21.46865414012586</v>
+        <v>21.76142985906336</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.32033522414057</v>
+        <v>24.07695373929628</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.63764988466402</v>
+        <v>15.41872162512589</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.83411703479728</v>
+        <v>27.28772102552913</v>
       </c>
       <c r="C23">
-        <v>11.24851018139974</v>
+        <v>18.51001435875002</v>
       </c>
       <c r="D23">
-        <v>4.275000683146545</v>
+        <v>4.581883843886112</v>
       </c>
       <c r="E23">
-        <v>12.04396540770479</v>
+        <v>14.82392233657633</v>
       </c>
       <c r="F23">
-        <v>21.43577851316295</v>
+        <v>21.41219420735847</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.17475873923043</v>
+        <v>23.62699481236406</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.6462727686422</v>
+        <v>15.23316362223458</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.84735496661258</v>
+        <v>25.28461567106833</v>
       </c>
       <c r="C24">
-        <v>10.60116657250653</v>
+        <v>17.27773198973081</v>
       </c>
       <c r="D24">
-        <v>4.201093711234425</v>
+        <v>4.382265417468853</v>
       </c>
       <c r="E24">
-        <v>11.85490903931279</v>
+        <v>13.52337101531266</v>
       </c>
       <c r="F24">
-        <v>21.32702998952216</v>
+        <v>20.1102540073824</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.61563492792558</v>
+        <v>21.86118363850304</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.69180194461336</v>
+        <v>14.57282778956924</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.70310366021947</v>
+        <v>22.9525389271399</v>
       </c>
       <c r="C25">
-        <v>9.850071848488247</v>
+        <v>15.85314158311203</v>
       </c>
       <c r="D25">
-        <v>4.119389504970804</v>
+        <v>4.157382497175708</v>
       </c>
       <c r="E25">
-        <v>11.66744963801123</v>
+        <v>12.24545028133722</v>
       </c>
       <c r="F25">
-        <v>21.24368185889139</v>
+        <v>18.75356596612323</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.99929647513908</v>
+        <v>19.82055827905999</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.76810836994687</v>
+        <v>13.94920098467377</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.08479564000459</v>
+        <v>23.92500120537392</v>
       </c>
       <c r="C2">
-        <v>14.72251892802995</v>
+        <v>16.48182412996804</v>
       </c>
       <c r="D2">
-        <v>3.984229549501264</v>
+        <v>2.478524276010223</v>
       </c>
       <c r="E2">
-        <v>11.38768064733792</v>
+        <v>5.845075360112493</v>
       </c>
       <c r="F2">
-        <v>17.80010737362808</v>
+        <v>38.17823135575426</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>3.498437790535838</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.948315689230498</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>24.82177499704194</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.623763362893358</v>
       </c>
       <c r="M2">
-        <v>18.19730006408306</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.13237784908545</v>
       </c>
       <c r="O2">
-        <v>13.563456200035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.78246031244152</v>
+      </c>
+      <c r="P2">
+        <v>14.50384163217085</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.72371349621602</v>
+        <v>22.48769311421669</v>
       </c>
       <c r="C3">
-        <v>13.90603788495878</v>
+        <v>15.33367710792691</v>
       </c>
       <c r="D3">
-        <v>3.862587584970335</v>
+        <v>2.369293408260995</v>
       </c>
       <c r="E3">
-        <v>10.80728570057658</v>
+        <v>5.651319131345041</v>
       </c>
       <c r="F3">
-        <v>17.18510379491575</v>
+        <v>36.97981878491446</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>3.809639099311694</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.210443597652432</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>24.32486236434136</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.528104113065591</v>
       </c>
       <c r="M3">
-        <v>17.02031059431679</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.941430047201826</v>
       </c>
       <c r="O3">
-        <v>13.34584731286041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.13551680507182</v>
+      </c>
+      <c r="P3">
+        <v>14.63404935968793</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.84066801935129</v>
+        <v>21.5589522127225</v>
       </c>
       <c r="C4">
-        <v>13.38037895444633</v>
+        <v>14.59229874853101</v>
       </c>
       <c r="D4">
-        <v>3.785955517814204</v>
+        <v>2.300238100410231</v>
       </c>
       <c r="E4">
-        <v>10.4523359094142</v>
+        <v>5.529124451243207</v>
       </c>
       <c r="F4">
-        <v>16.8238626956732</v>
+        <v>36.23257985187455</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>4.006749798513677</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.377046433160841</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>24.01772826842534</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.467560440539958</v>
       </c>
       <c r="M4">
-        <v>16.25931264280306</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.822349129818774</v>
       </c>
       <c r="O4">
-        <v>13.23297296155908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.72482653509907</v>
+      </c>
+      <c r="P4">
+        <v>14.71430374323797</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.4688836249389</v>
+        <v>21.16091285497793</v>
       </c>
       <c r="C5">
-        <v>13.1601450211646</v>
+        <v>14.28460630622195</v>
       </c>
       <c r="D5">
-        <v>3.754268607048246</v>
+        <v>2.270219212010467</v>
       </c>
       <c r="E5">
-        <v>10.30822569294842</v>
+        <v>5.478154738355045</v>
       </c>
       <c r="F5">
-        <v>16.68092061601337</v>
+        <v>35.90958536529401</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>4.089227132294168</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.448996031862032</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>23.88060026872577</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.442192280814554</v>
       </c>
       <c r="M5">
-        <v>15.93952212307929</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.774374538729264</v>
       </c>
       <c r="O5">
-        <v>13.19203722069374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.55213319844222</v>
+      </c>
+      <c r="P5">
+        <v>14.74478660181149</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.40642750241837</v>
+        <v>21.08419844254284</v>
       </c>
       <c r="C6">
-        <v>13.12321488866555</v>
+        <v>14.23739197885202</v>
       </c>
       <c r="D6">
-        <v>3.748980250683386</v>
+        <v>2.26352773366501</v>
       </c>
       <c r="E6">
-        <v>10.2843343687937</v>
+        <v>5.469223518128208</v>
       </c>
       <c r="F6">
-        <v>16.65744702209982</v>
+        <v>35.83630294845126</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>4.103747211691249</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.464343816465238</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>23.84369299625875</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.437673476816183</v>
       </c>
       <c r="M6">
-        <v>15.88583573862909</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.767579867083027</v>
       </c>
       <c r="O6">
-        <v>13.18554062495067</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.52066271242077</v>
+      </c>
+      <c r="P6">
+        <v>14.7470377700806</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.83570236809317</v>
+        <v>21.52705793260631</v>
       </c>
       <c r="C7">
-        <v>13.37743304494098</v>
+        <v>14.59996973523125</v>
       </c>
       <c r="D7">
-        <v>3.785529992523089</v>
+        <v>2.295280301070048</v>
       </c>
       <c r="E7">
-        <v>10.45038996650531</v>
+        <v>5.527311278764615</v>
       </c>
       <c r="F7">
-        <v>16.82191746417119</v>
+        <v>36.17551962565877</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>4.009827247551963</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.386831446476934</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>23.97758652292972</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.466476814941197</v>
       </c>
       <c r="M7">
-        <v>16.25503906421675</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.824944936439175</v>
       </c>
       <c r="O7">
-        <v>13.23240061426634</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.71548683778374</v>
+      </c>
+      <c r="P7">
+        <v>14.70707628171636</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.62529457880898</v>
+        <v>23.40632657117018</v>
       </c>
       <c r="C8">
-        <v>14.44609637588988</v>
+        <v>16.1076999607107</v>
       </c>
       <c r="D8">
-        <v>3.94270775500723</v>
+        <v>2.435419819843912</v>
       </c>
       <c r="E8">
-        <v>11.1873649243431</v>
+        <v>5.777472417366194</v>
       </c>
       <c r="F8">
-        <v>17.58474790663948</v>
+        <v>37.70043230143196</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>3.607028800097474</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.048913231226943</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>24.60147250532487</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.590227398225984</v>
       </c>
       <c r="M8">
-        <v>17.79939805977283</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.071116772712838</v>
       </c>
       <c r="O8">
-        <v>13.48403563265045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.55343097485641</v>
+      </c>
+      <c r="P8">
+        <v>14.53880904284504</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.76130552869366</v>
+        <v>26.76239926617085</v>
       </c>
       <c r="C9">
-        <v>16.34576125026358</v>
+        <v>18.75967432562963</v>
       </c>
       <c r="D9">
-        <v>4.234360699592225</v>
+        <v>2.702562538758671</v>
       </c>
       <c r="E9">
-        <v>12.63757488101717</v>
+        <v>6.24547055453209</v>
       </c>
       <c r="F9">
-        <v>19.20384870891143</v>
+        <v>40.67704834886587</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>2.859800354140166</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.415091888254606</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>25.87177953095644</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.820408117940631</v>
       </c>
       <c r="M9">
-        <v>20.52646849982673</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.532188917976418</v>
       </c>
       <c r="O9">
-        <v>14.14764671355016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.09487968396172</v>
+      </c>
+      <c r="P9">
+        <v>14.22399465213706</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.84162835693105</v>
+        <v>28.90540821389374</v>
       </c>
       <c r="C10">
-        <v>17.61969704356279</v>
+        <v>20.50905642275961</v>
       </c>
       <c r="D10">
-        <v>4.437224236711098</v>
+        <v>2.893716938197058</v>
       </c>
       <c r="E10">
-        <v>13.88097934276737</v>
+        <v>6.597409712244333</v>
       </c>
       <c r="F10">
-        <v>20.46004794339276</v>
+        <v>42.51348222371298</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>2.368824154368673</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.989954395904854</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>26.62066304235108</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.98391501524626</v>
       </c>
       <c r="M10">
-        <v>22.35096114200662</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.791649917268001</v>
       </c>
       <c r="O10">
-        <v>14.74497519057191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.06491584089129</v>
+      </c>
+      <c r="P10">
+        <v>13.95807229411079</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.7404945810357</v>
+        <v>29.10422512099294</v>
       </c>
       <c r="C11">
-        <v>18.17270190731591</v>
+        <v>20.99684763168424</v>
       </c>
       <c r="D11">
-        <v>4.526820366247263</v>
+        <v>3.020377191105717</v>
       </c>
       <c r="E11">
-        <v>14.46460177115513</v>
+        <v>6.99658755930658</v>
       </c>
       <c r="F11">
-        <v>21.04453287452283</v>
+        <v>41.10370818565531</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.148962710409933</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.902368318400447</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25.59968247107698</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.111830649832583</v>
       </c>
       <c r="M11">
-        <v>23.14334490995808</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.325661080422893</v>
       </c>
       <c r="O11">
-        <v>15.04145210847387</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>16.76268207484038</v>
+      </c>
+      <c r="P11">
+        <v>13.57890983271829</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.074140195393</v>
+        <v>28.85819784786331</v>
       </c>
       <c r="C12">
-        <v>18.37830738913875</v>
+        <v>21.03532172885779</v>
       </c>
       <c r="D12">
-        <v>4.560347787514493</v>
+        <v>3.092050466644077</v>
       </c>
       <c r="E12">
-        <v>14.68331565756475</v>
+        <v>7.331692002010557</v>
       </c>
       <c r="F12">
-        <v>21.26764642851523</v>
+        <v>39.57366532851322</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.418520655144757</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.895023930780237</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>24.62460970115789</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.234641084140781</v>
       </c>
       <c r="M12">
-        <v>23.43811344525625</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.886942660123414</v>
       </c>
       <c r="O12">
-        <v>15.15733367399518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>16.30557655761268</v>
+      </c>
+      <c r="P12">
+        <v>13.35867231015932</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.00258163687062</v>
+        <v>28.21524586611539</v>
       </c>
       <c r="C13">
-        <v>18.33419556179435</v>
+        <v>20.74351010160331</v>
       </c>
       <c r="D13">
-        <v>4.553145073412638</v>
+        <v>3.12060304313651</v>
       </c>
       <c r="E13">
-        <v>14.63631123156991</v>
+        <v>7.631219217564758</v>
       </c>
       <c r="F13">
-        <v>21.21951682452202</v>
+        <v>37.75650759544914</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.800698786775881</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.964815250020534</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.56100946832454</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.356078366593964</v>
       </c>
       <c r="M13">
-        <v>23.37486307386441</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.446804039466973</v>
       </c>
       <c r="O13">
-        <v>15.13221507474508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.6819408585482</v>
+      </c>
+      <c r="P13">
+        <v>13.23720236801793</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.76807823427105</v>
+        <v>27.57051104108933</v>
       </c>
       <c r="C14">
-        <v>18.18969337217804</v>
+        <v>20.38842671212129</v>
       </c>
       <c r="D14">
-        <v>4.529586788790764</v>
+        <v>3.119947537971605</v>
       </c>
       <c r="E14">
-        <v>14.4826405642087</v>
+        <v>7.831088610157942</v>
       </c>
       <c r="F14">
-        <v>21.06285326954274</v>
+        <v>36.32919243983907</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.79874898851085</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.051386544047509</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.76588126745614</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.444763062194761</v>
       </c>
       <c r="M14">
-        <v>23.16770101023238</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.144061071971605</v>
       </c>
       <c r="O14">
-        <v>15.05091308023012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.16184467788492</v>
+      </c>
+      <c r="P14">
+        <v>13.20056397806872</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.62356386550869</v>
+        <v>27.31856047405243</v>
       </c>
       <c r="C15">
-        <v>18.10068646917607</v>
+        <v>20.23348676106383</v>
       </c>
       <c r="D15">
-        <v>4.515104105834271</v>
+        <v>3.10910704290086</v>
       </c>
       <c r="E15">
-        <v>14.38821882712387</v>
+        <v>7.863588077455738</v>
       </c>
       <c r="F15">
-        <v>20.96712214695791</v>
+        <v>35.90417666519369</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.036209752889076</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.094017186450714</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.54217136879669</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.459984139447794</v>
       </c>
       <c r="M15">
-        <v>23.04012297992013</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.069329405578388</v>
       </c>
       <c r="O15">
-        <v>15.00158513451592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.99724774529286</v>
+      </c>
+      <c r="P15">
+        <v>13.20719091232525</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.78193755431954</v>
+        <v>26.50578303633465</v>
       </c>
       <c r="C16">
-        <v>17.58302365096777</v>
+        <v>19.55656062135913</v>
       </c>
       <c r="D16">
-        <v>4.431313555630766</v>
+        <v>3.021601704852472</v>
       </c>
       <c r="E16">
-        <v>13.84250978684838</v>
+        <v>7.663955175755824</v>
       </c>
       <c r="F16">
-        <v>20.42210415469314</v>
+        <v>35.38685348714405</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.887187020750455</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.266272760335367</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>22.39243829056634</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.363795008501231</v>
       </c>
       <c r="M16">
-        <v>22.29843019073567</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.041466798719145</v>
       </c>
       <c r="O16">
-        <v>14.72610247929151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.68194903113147</v>
+      </c>
+      <c r="P16">
+        <v>13.34034906689581</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25352846307814</v>
+        <v>26.22979340487326</v>
       </c>
       <c r="C17">
-        <v>17.25866412453848</v>
+        <v>19.22621619983802</v>
       </c>
       <c r="D17">
-        <v>4.37921136762174</v>
+        <v>2.954024109474158</v>
       </c>
       <c r="E17">
-        <v>13.50350316182928</v>
+        <v>7.393709917324321</v>
       </c>
       <c r="F17">
-        <v>20.09101627580973</v>
+        <v>35.76773107303377</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>6.223767561748971</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.35342718645872</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>22.70436222673555</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.23825809623129</v>
       </c>
       <c r="M17">
-        <v>21.83387655314947</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.179444451632728</v>
       </c>
       <c r="O17">
-        <v>14.56348227767064</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.72408430890837</v>
+      </c>
+      <c r="P17">
+        <v>13.45928685907826</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.94512609726388</v>
+        <v>26.41231327750398</v>
       </c>
       <c r="C18">
-        <v>17.06960405732823</v>
+        <v>19.15722186865156</v>
       </c>
       <c r="D18">
-        <v>4.348991266259778</v>
+        <v>2.899061830019719</v>
       </c>
       <c r="E18">
-        <v>13.30691843762341</v>
+        <v>7.059291706922791</v>
       </c>
       <c r="F18">
-        <v>19.90181386413927</v>
+        <v>36.99976266627073</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>5.085754564744736</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.364461125012252</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.47864889959149</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.093549754637451</v>
       </c>
       <c r="M18">
-        <v>21.56313206077807</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.489472889148855</v>
       </c>
       <c r="O18">
-        <v>14.4722744826813</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.08403823134831</v>
+      </c>
+      <c r="P18">
+        <v>13.6007249933189</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.83993502523633</v>
+        <v>26.90405322696084</v>
       </c>
       <c r="C19">
-        <v>17.00516269245239</v>
+        <v>19.32065417362914</v>
       </c>
       <c r="D19">
-        <v>4.338716408257374</v>
+        <v>2.849157898008642</v>
       </c>
       <c r="E19">
-        <v>13.24008020829168</v>
+        <v>6.741801756374875</v>
       </c>
       <c r="F19">
-        <v>19.83796784000246</v>
+        <v>38.72773385843679</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.788864950136287</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.329350410936784</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24.50884845992217</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.976985084163442</v>
       </c>
       <c r="M19">
-        <v>21.47085038281372</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.938644937383335</v>
       </c>
       <c r="O19">
-        <v>14.44179100316858</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.65466425066801</v>
+      </c>
+      <c r="P19">
+        <v>13.76807531295647</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.3102410617646</v>
+        <v>28.28824583476256</v>
       </c>
       <c r="C20">
-        <v>17.29345117351262</v>
+        <v>20.08638392454575</v>
       </c>
       <c r="D20">
-        <v>4.384783959094009</v>
+        <v>2.83193810738765</v>
       </c>
       <c r="E20">
-        <v>13.53975538719213</v>
+        <v>6.503489793445881</v>
       </c>
       <c r="F20">
-        <v>20.12613455217471</v>
+        <v>41.88182649978481</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>2.501454311304748</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.132017994588062</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>26.30956689287993</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.939622922353663</v>
       </c>
       <c r="M20">
-        <v>21.88369523674074</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.730139148799211</v>
       </c>
       <c r="O20">
-        <v>14.58055222517558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.79281409177113</v>
+      </c>
+      <c r="P20">
+        <v>14.00459755249351</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.83713958587902</v>
+        <v>30.0026229589737</v>
       </c>
       <c r="C21">
-        <v>18.2322403231928</v>
+        <v>21.42089859654044</v>
       </c>
       <c r="D21">
-        <v>4.536517401396866</v>
+        <v>2.970299439357963</v>
       </c>
       <c r="E21">
-        <v>14.52783836506532</v>
+        <v>6.73697059821568</v>
       </c>
       <c r="F21">
-        <v>21.10882137771927</v>
+        <v>43.68725480636682</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.082916099250522</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.793412601477784</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>27.13884428065057</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.060327101971541</v>
       </c>
       <c r="M21">
-        <v>23.22869211936662</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.030430327993173</v>
       </c>
       <c r="O21">
-        <v>15.07469502254348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.64542806713687</v>
+      </c>
+      <c r="P21">
+        <v>13.85406789401853</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.79584568560944</v>
+        <v>31.06402538781908</v>
       </c>
       <c r="C22">
-        <v>18.82362467526362</v>
+        <v>22.23644656216434</v>
       </c>
       <c r="D22">
-        <v>4.633343925787084</v>
+        <v>3.067172740934299</v>
       </c>
       <c r="E22">
-        <v>15.16033117641723</v>
+        <v>6.900193613157191</v>
       </c>
       <c r="F22">
-        <v>21.76142985906336</v>
+        <v>44.77728261065386</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>1.826025296305761</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.567489220327255</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.64273180295144</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.139991344778291</v>
       </c>
       <c r="M22">
-        <v>24.07695373929628</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.18503860581213</v>
       </c>
       <c r="O22">
-        <v>15.41872162512589</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.1518497468339</v>
+      </c>
+      <c r="P22">
+        <v>13.74870761746415</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.28772102552913</v>
+        <v>30.52488537322905</v>
       </c>
       <c r="C23">
-        <v>18.51001435875002</v>
+        <v>21.79425902307207</v>
       </c>
       <c r="D23">
-        <v>4.581883843886112</v>
+        <v>3.020070195735646</v>
       </c>
       <c r="E23">
-        <v>14.82392233657633</v>
+        <v>6.814415366781458</v>
       </c>
       <c r="F23">
-        <v>21.41219420735847</v>
+        <v>44.24899091498224</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>1.960769549841715</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.674574282250695</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>27.41406225587106</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.098244576063259</v>
       </c>
       <c r="M23">
-        <v>23.62699481236406</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.099403398397682</v>
       </c>
       <c r="O23">
-        <v>15.23316362223458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.88969175099634</v>
+      </c>
+      <c r="P23">
+        <v>13.81327750185972</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.28461567106833</v>
+        <v>28.36273816642116</v>
       </c>
       <c r="C24">
-        <v>17.27773198973081</v>
+        <v>20.07514412168284</v>
       </c>
       <c r="D24">
-        <v>4.382265417468853</v>
+        <v>2.832255598338186</v>
       </c>
       <c r="E24">
-        <v>13.52337101531266</v>
+        <v>6.484234643404903</v>
       </c>
       <c r="F24">
-        <v>20.1102540073824</v>
+        <v>42.13495307378754</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>2.481551903986968</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.110407369389861</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>26.47953831753023</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.937084349249857</v>
       </c>
       <c r="M24">
-        <v>21.86118363850304</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.775186540980227</v>
       </c>
       <c r="O24">
-        <v>14.57282778956924</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.85601833853034</v>
+      </c>
+      <c r="P24">
+        <v>14.04468762548033</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9525389271399</v>
+        <v>25.85403235656237</v>
       </c>
       <c r="C25">
-        <v>15.85314158311203</v>
+        <v>18.08974154483179</v>
       </c>
       <c r="D25">
-        <v>4.157382497175708</v>
+        <v>2.624345540409943</v>
       </c>
       <c r="E25">
-        <v>12.24545028133722</v>
+        <v>6.119409719718969</v>
       </c>
       <c r="F25">
-        <v>18.75356596612323</v>
+        <v>39.79767225261524</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>3.060584822360427</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.598658677605516</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>25.46555958894622</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.758352641642136</v>
       </c>
       <c r="M25">
-        <v>19.82055827905999</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.414858226455968</v>
       </c>
       <c r="O25">
-        <v>13.94920098467377</v>
+        <v>15.67951755589085</v>
+      </c>
+      <c r="P25">
+        <v>14.29592387438594</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.92500120537392</v>
+        <v>22.6123727382254</v>
       </c>
       <c r="C2">
-        <v>16.48182412996804</v>
+        <v>17.01493130958325</v>
       </c>
       <c r="D2">
-        <v>2.478524276010223</v>
+        <v>2.529158896296389</v>
       </c>
       <c r="E2">
-        <v>5.845075360112493</v>
+        <v>5.961651501265943</v>
       </c>
       <c r="F2">
-        <v>38.17823135575426</v>
+        <v>35.26674179427022</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.498437790535838</v>
+        <v>3.290668433650247</v>
       </c>
       <c r="I2">
-        <v>3.948315689230498</v>
+        <v>3.698662610953214</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>24.82177499704194</v>
+        <v>22.48099022042766</v>
       </c>
       <c r="L2">
-        <v>5.623763362893358</v>
+        <v>17.69547951073423</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.73985895031365</v>
       </c>
       <c r="N2">
-        <v>7.13237784908545</v>
+        <v>5.616122485539467</v>
       </c>
       <c r="O2">
-        <v>14.78246031244152</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.50384163217085</v>
+        <v>7.463910675271873</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.39252153586846</v>
+      </c>
+      <c r="R2">
+        <v>13.92795976076985</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.48769311421669</v>
+        <v>21.26932131652271</v>
       </c>
       <c r="C3">
-        <v>15.33367710792691</v>
+        <v>15.82007155448247</v>
       </c>
       <c r="D3">
-        <v>2.369293408260995</v>
+        <v>2.454101535864007</v>
       </c>
       <c r="E3">
-        <v>5.651319131345041</v>
+        <v>5.784341585683599</v>
       </c>
       <c r="F3">
-        <v>36.97981878491446</v>
+        <v>34.31119879489476</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.809639099311694</v>
+        <v>3.573604093440731</v>
       </c>
       <c r="I3">
-        <v>4.210443597652432</v>
+        <v>3.927779791961744</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>24.32486236434136</v>
+        <v>22.16668117288194</v>
       </c>
       <c r="L3">
-        <v>5.528104113065591</v>
+        <v>17.56829615358325</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.40642046841075</v>
       </c>
       <c r="N3">
-        <v>6.941430047201826</v>
+        <v>5.524228747573086</v>
       </c>
       <c r="O3">
-        <v>14.13551680507182</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.63404935968793</v>
+        <v>7.267025786581173</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.77172697929871</v>
+      </c>
+      <c r="R3">
+        <v>14.08258091314955</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.5589522127225</v>
+        <v>20.39915599522597</v>
       </c>
       <c r="C4">
-        <v>14.59229874853101</v>
+        <v>15.06697866317212</v>
       </c>
       <c r="D4">
-        <v>2.300238100410231</v>
+        <v>2.407160059527778</v>
       </c>
       <c r="E4">
-        <v>5.529124451243207</v>
+        <v>5.672473144517634</v>
       </c>
       <c r="F4">
-        <v>36.23257985187455</v>
+        <v>33.71640491169769</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.006749798513677</v>
+        <v>3.753034553082459</v>
       </c>
       <c r="I4">
-        <v>4.377046433160841</v>
+        <v>4.073851032946743</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>24.01772826842534</v>
+        <v>21.97267418521356</v>
       </c>
       <c r="L4">
-        <v>5.467560440539958</v>
+        <v>17.48256198846667</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>15.21836756531278</v>
       </c>
       <c r="N4">
-        <v>6.822349129818774</v>
+        <v>5.466086201053911</v>
       </c>
       <c r="O4">
-        <v>13.72482653509907</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>14.71430374323797</v>
+        <v>7.144571900469036</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.37706625822757</v>
+      </c>
+      <c r="R4">
+        <v>14.17809218606572</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.16091285497793</v>
+        <v>20.02554305701536</v>
       </c>
       <c r="C5">
-        <v>14.28460630622195</v>
+        <v>14.76227953092374</v>
       </c>
       <c r="D5">
-        <v>2.270219212010467</v>
+        <v>2.387180975511926</v>
       </c>
       <c r="E5">
-        <v>5.478154738355045</v>
+        <v>5.625803790159048</v>
       </c>
       <c r="F5">
-        <v>35.90958536529401</v>
+        <v>33.45746504728296</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.089227132294168</v>
+        <v>3.828169625015763</v>
       </c>
       <c r="I5">
-        <v>4.448996031862032</v>
+        <v>4.137730020908097</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>23.88060026872577</v>
+        <v>21.88299397479824</v>
       </c>
       <c r="L5">
-        <v>5.442192280814554</v>
+        <v>17.43682585493511</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>15.13924631643008</v>
       </c>
       <c r="N5">
-        <v>6.774374538729264</v>
+        <v>5.441778706983373</v>
       </c>
       <c r="O5">
-        <v>13.55213319844222</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>14.74478660181149</v>
+        <v>7.095244491791232</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.21101502195906</v>
+      </c>
+      <c r="R5">
+        <v>14.21557447194887</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.08419844254284</v>
+        <v>19.95341676918683</v>
       </c>
       <c r="C6">
-        <v>14.23739197885202</v>
+        <v>14.71543058297702</v>
       </c>
       <c r="D6">
-        <v>2.26352773366501</v>
+        <v>2.383096232682594</v>
       </c>
       <c r="E6">
-        <v>5.469223518128208</v>
+        <v>5.617629573027926</v>
       </c>
       <c r="F6">
-        <v>35.83630294845126</v>
+        <v>33.39633719007655</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.103747211691249</v>
+        <v>3.841405271397051</v>
       </c>
       <c r="I6">
-        <v>4.464343816465238</v>
+        <v>4.152223577764723</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>23.84369299625875</v>
+        <v>21.85539559291917</v>
       </c>
       <c r="L6">
-        <v>5.437673476816183</v>
+        <v>17.41829587755289</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>15.11798417632672</v>
       </c>
       <c r="N6">
-        <v>6.767579867083027</v>
+        <v>5.437507471636027</v>
       </c>
       <c r="O6">
-        <v>13.52066271242077</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>14.7470377700806</v>
+        <v>7.088163590643141</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.18080050031637</v>
+      </c>
+      <c r="R6">
+        <v>14.21986010899554</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.52705793260631</v>
+        <v>20.3690197002371</v>
       </c>
       <c r="C7">
-        <v>14.59996973523125</v>
+        <v>15.07419180488225</v>
       </c>
       <c r="D7">
-        <v>2.295280301070048</v>
+        <v>2.404846252084138</v>
       </c>
       <c r="E7">
-        <v>5.527311278764615</v>
+        <v>5.670825114441443</v>
       </c>
       <c r="F7">
-        <v>36.17551962565877</v>
+        <v>33.66420643898891</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.009827247551963</v>
+        <v>3.755848903911257</v>
       </c>
       <c r="I7">
-        <v>4.386831446476934</v>
+        <v>4.084813518444403</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>23.97758652292972</v>
+        <v>21.93704278507812</v>
       </c>
       <c r="L7">
-        <v>5.466476814941197</v>
+        <v>17.45296263801758</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>15.19412486896641</v>
       </c>
       <c r="N7">
-        <v>6.824944936439175</v>
+        <v>5.465209374555751</v>
       </c>
       <c r="O7">
-        <v>13.71548683778374</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>14.70707628171636</v>
+        <v>7.146972630405377</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.36823529156388</v>
+      </c>
+      <c r="R7">
+        <v>14.17337039595672</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.40632657117018</v>
+        <v>22.12786954494452</v>
       </c>
       <c r="C8">
-        <v>16.1076999607107</v>
+        <v>16.62432378761508</v>
       </c>
       <c r="D8">
-        <v>2.435419819843912</v>
+        <v>2.500840187085674</v>
       </c>
       <c r="E8">
-        <v>5.777472417366194</v>
+        <v>5.899817359997876</v>
       </c>
       <c r="F8">
-        <v>37.70043230143196</v>
+        <v>34.87702781255933</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.607028800097474</v>
+        <v>3.389352148600203</v>
       </c>
       <c r="I8">
-        <v>4.048913231226943</v>
+        <v>3.789588875450113</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>24.60147250532487</v>
+        <v>22.32843015185579</v>
       </c>
       <c r="L8">
-        <v>5.590227398225984</v>
+        <v>17.6171497050385</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.59015454447347</v>
       </c>
       <c r="N8">
-        <v>7.071116772712838</v>
+        <v>5.584130054509649</v>
       </c>
       <c r="O8">
-        <v>14.55343097485641</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>14.53880904284504</v>
+        <v>7.400336598315118</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.17305059937878</v>
+      </c>
+      <c r="R8">
+        <v>13.97466523070202</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.76239926617085</v>
+        <v>25.25249399723227</v>
       </c>
       <c r="C9">
-        <v>18.75967432562963</v>
+        <v>19.3827848755586</v>
       </c>
       <c r="D9">
-        <v>2.702562538758671</v>
+        <v>2.686399225668782</v>
       </c>
       <c r="E9">
-        <v>6.24547055453209</v>
+        <v>6.327756600621473</v>
       </c>
       <c r="F9">
-        <v>40.67704834886587</v>
+        <v>37.26535953411298</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.859800354140166</v>
+        <v>2.711379224717876</v>
       </c>
       <c r="I9">
-        <v>3.415091888254606</v>
+        <v>3.235682633252893</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>25.87177953095644</v>
+        <v>23.14674749919261</v>
       </c>
       <c r="L9">
-        <v>5.820408117940631</v>
+        <v>17.92703793299177</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.53370158127497</v>
       </c>
       <c r="N9">
-        <v>7.532188917976418</v>
+        <v>5.805060226124332</v>
       </c>
       <c r="O9">
-        <v>16.09487968396172</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>14.22399465213706</v>
+        <v>7.87762439668872</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.64891649081403</v>
+      </c>
+      <c r="R9">
+        <v>13.59730695296649</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.90540821389374</v>
+        <v>27.2454426543754</v>
       </c>
       <c r="C10">
-        <v>20.50905642275961</v>
+        <v>21.19454109742539</v>
       </c>
       <c r="D10">
-        <v>2.893716938197058</v>
+        <v>2.824605796393576</v>
       </c>
       <c r="E10">
-        <v>6.597409712244333</v>
+        <v>6.650143148384964</v>
       </c>
       <c r="F10">
-        <v>42.51348222371298</v>
+        <v>38.72695922665253</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.368824154368673</v>
+        <v>2.269227597725894</v>
       </c>
       <c r="I10">
-        <v>2.989954395904854</v>
+        <v>2.8681048972702</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>26.62066304235108</v>
+        <v>23.60297825521797</v>
       </c>
       <c r="L10">
-        <v>5.98391501524626</v>
+        <v>18.01449229469486</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.18477622863884</v>
       </c>
       <c r="N10">
-        <v>7.791649917268001</v>
+        <v>5.965633785409096</v>
       </c>
       <c r="O10">
-        <v>17.06491584089129</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>13.95807229411079</v>
+        <v>8.146721584568221</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.57520979466261</v>
+      </c>
+      <c r="R10">
+        <v>13.30249388774157</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.10422512099294</v>
+        <v>27.49578774368472</v>
       </c>
       <c r="C11">
-        <v>20.99684763168424</v>
+        <v>21.66015228849881</v>
       </c>
       <c r="D11">
-        <v>3.020377191105717</v>
+        <v>2.931213109774106</v>
       </c>
       <c r="E11">
-        <v>6.99658755930658</v>
+        <v>7.029488990186223</v>
       </c>
       <c r="F11">
-        <v>41.10370818565531</v>
+        <v>37.43652096126933</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.148962710409933</v>
+        <v>3.082643495568261</v>
       </c>
       <c r="I11">
-        <v>2.902368318400447</v>
+        <v>2.795688883548296</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>25.59968247107698</v>
+        <v>22.69681841068165</v>
       </c>
       <c r="L11">
-        <v>6.111830649832583</v>
+        <v>17.21685286203702</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>16.63611458868159</v>
       </c>
       <c r="N11">
-        <v>7.325661080422893</v>
+        <v>6.12186643980523</v>
       </c>
       <c r="O11">
-        <v>16.76268207484038</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>13.57890983271829</v>
+        <v>7.658987568928301</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.28760788675332</v>
+      </c>
+      <c r="R11">
+        <v>13.04504183439715</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.85819784786331</v>
+        <v>27.32410648278586</v>
       </c>
       <c r="C12">
-        <v>21.03532172885779</v>
+        <v>21.66756685396938</v>
       </c>
       <c r="D12">
-        <v>3.092050466644077</v>
+        <v>2.994913807351667</v>
       </c>
       <c r="E12">
-        <v>7.331692002010557</v>
+        <v>7.355244260957751</v>
       </c>
       <c r="F12">
-        <v>39.57366532851322</v>
+        <v>36.08256601799994</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.418520655144757</v>
+        <v>4.369874699729458</v>
       </c>
       <c r="I12">
-        <v>2.895023930780237</v>
+        <v>2.786764575915348</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>24.62460970115789</v>
+        <v>21.8776862542698</v>
       </c>
       <c r="L12">
-        <v>6.234641084140781</v>
+        <v>16.567434321068</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>16.05653856645581</v>
       </c>
       <c r="N12">
-        <v>6.886942660123414</v>
+        <v>6.266032043773995</v>
       </c>
       <c r="O12">
-        <v>16.30557655761268</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>13.35867231015932</v>
+        <v>7.198399936022685</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.85185079098015</v>
+      </c>
+      <c r="R12">
+        <v>12.92604676125896</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.21524586611539</v>
+        <v>26.78187133678816</v>
       </c>
       <c r="C13">
-        <v>20.74351010160331</v>
+        <v>21.3339929337936</v>
       </c>
       <c r="D13">
-        <v>3.12060304313651</v>
+        <v>3.027390959331577</v>
       </c>
       <c r="E13">
-        <v>7.631219217564758</v>
+        <v>7.652478779522441</v>
       </c>
       <c r="F13">
-        <v>37.75650759544914</v>
+        <v>34.5055633843192</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.800698786775881</v>
+        <v>5.757856538224812</v>
       </c>
       <c r="I13">
-        <v>2.964815250020534</v>
+        <v>2.844485517214661</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>23.56100946832454</v>
+        <v>21.01958723519239</v>
       </c>
       <c r="L13">
-        <v>6.356078366593964</v>
+        <v>15.94369982876295</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.37731834568106</v>
       </c>
       <c r="N13">
-        <v>6.446804039466973</v>
+        <v>6.404664572234223</v>
       </c>
       <c r="O13">
-        <v>15.6819408585482</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>13.23720236801793</v>
+        <v>6.734661747724006</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.25693026395227</v>
+      </c>
+      <c r="R13">
+        <v>12.89666997477911</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.57051104108933</v>
+        <v>26.22110282554483</v>
       </c>
       <c r="C14">
-        <v>20.38842671212129</v>
+        <v>20.94383667760151</v>
       </c>
       <c r="D14">
-        <v>3.119947537971605</v>
+        <v>3.035588614027761</v>
       </c>
       <c r="E14">
-        <v>7.831088610157942</v>
+        <v>7.853789368387433</v>
       </c>
       <c r="F14">
-        <v>36.32919243983907</v>
+        <v>33.27855614981232</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.79874898851085</v>
+        <v>6.756719449080058</v>
       </c>
       <c r="I14">
-        <v>3.051386544047509</v>
+        <v>2.918520010795887</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>22.76588126745614</v>
+        <v>20.3928731143745</v>
       </c>
       <c r="L14">
-        <v>6.444763062194761</v>
+        <v>15.50890534141767</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.85261712573523</v>
       </c>
       <c r="N14">
-        <v>6.144061071971605</v>
+        <v>6.502983361761442</v>
       </c>
       <c r="O14">
-        <v>15.16184467788492</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>13.20056397806872</v>
+        <v>6.414510715537439</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.7604681827559</v>
+      </c>
+      <c r="R14">
+        <v>12.91844085529886</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.31856047405243</v>
+        <v>25.99582570643238</v>
       </c>
       <c r="C15">
-        <v>20.23348676106383</v>
+        <v>20.77768815060768</v>
       </c>
       <c r="D15">
-        <v>3.10910704290086</v>
+        <v>3.029938484974399</v>
       </c>
       <c r="E15">
-        <v>7.863588077455738</v>
+        <v>7.887895663167939</v>
       </c>
       <c r="F15">
-        <v>35.90417666519369</v>
+        <v>32.91747298236576</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.036209752889076</v>
+        <v>6.993245806091116</v>
       </c>
       <c r="I15">
-        <v>3.094017186450714</v>
+        <v>2.956564949071816</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>22.54217136879669</v>
+        <v>20.2218651383729</v>
       </c>
       <c r="L15">
-        <v>6.459984139447794</v>
+        <v>15.39805240186386</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.69819481420449</v>
       </c>
       <c r="N15">
-        <v>6.069329405578388</v>
+        <v>6.520066015589661</v>
       </c>
       <c r="O15">
-        <v>14.99724774529286</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>13.20719091232525</v>
+        <v>6.335480305771263</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.60330061074231</v>
+      </c>
+      <c r="R15">
+        <v>12.93823403632547</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.50578303633465</v>
+        <v>25.23341574925486</v>
       </c>
       <c r="C16">
-        <v>19.55656062135913</v>
+        <v>20.07907121599338</v>
       </c>
       <c r="D16">
-        <v>3.021601704852472</v>
+        <v>2.964772816610995</v>
       </c>
       <c r="E16">
-        <v>7.663955175755824</v>
+        <v>7.699577575914017</v>
       </c>
       <c r="F16">
-        <v>35.38685348714405</v>
+        <v>32.52376257740752</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.887187020750455</v>
+        <v>6.832611041868102</v>
       </c>
       <c r="I16">
-        <v>3.266272760335367</v>
+        <v>3.107658707758381</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>22.39243829056634</v>
+        <v>20.16399591836791</v>
       </c>
       <c r="L16">
-        <v>6.363795008501231</v>
+        <v>15.43650602661286</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.53970696712226</v>
       </c>
       <c r="N16">
-        <v>6.041466798719145</v>
+        <v>6.421069612583942</v>
       </c>
       <c r="O16">
-        <v>14.68194903113147</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>13.34034906689581</v>
+        <v>6.30878390322524</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.30175094842397</v>
+      </c>
+      <c r="R16">
+        <v>13.05822340102392</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.22979340487326</v>
+        <v>24.94970133529348</v>
       </c>
       <c r="C17">
-        <v>19.22621619983802</v>
+        <v>19.75164491453872</v>
       </c>
       <c r="D17">
-        <v>2.954024109474158</v>
+        <v>2.90974666187624</v>
       </c>
       <c r="E17">
-        <v>7.393709917324321</v>
+        <v>7.437659014453139</v>
       </c>
       <c r="F17">
-        <v>35.76773107303377</v>
+        <v>32.89013849827976</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.223767561748971</v>
+        <v>6.157302187799585</v>
       </c>
       <c r="I17">
-        <v>3.35342718645872</v>
+        <v>3.185283627606023</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>22.70436222673555</v>
+        <v>20.45522815890646</v>
       </c>
       <c r="L17">
-        <v>6.23825809623129</v>
+        <v>15.70411242338705</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.6973630988632</v>
       </c>
       <c r="N17">
-        <v>6.179444451632728</v>
+        <v>6.28863812660018</v>
       </c>
       <c r="O17">
-        <v>14.72408430890837</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>13.45928685907826</v>
+        <v>6.456831624438883</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.34166658581741</v>
+      </c>
+      <c r="R17">
+        <v>13.13869191642298</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.41231327750398</v>
+        <v>25.07267933475784</v>
       </c>
       <c r="C18">
-        <v>19.15722186865156</v>
+        <v>19.70795178326527</v>
       </c>
       <c r="D18">
-        <v>2.899061830019719</v>
+        <v>2.859197710187111</v>
       </c>
       <c r="E18">
-        <v>7.059291706922791</v>
+        <v>7.110488442500664</v>
       </c>
       <c r="F18">
-        <v>36.99976266627073</v>
+        <v>33.983859368864</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.085754564744736</v>
+        <v>5.003756288895833</v>
       </c>
       <c r="I18">
-        <v>3.364461125012252</v>
+        <v>3.194315733737246</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>23.47864889959149</v>
+        <v>21.10707228059316</v>
       </c>
       <c r="L18">
-        <v>6.093549754637451</v>
+        <v>16.22726807535931</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>15.15625402671757</v>
       </c>
       <c r="N18">
-        <v>6.489472889148855</v>
+        <v>6.131088691466664</v>
       </c>
       <c r="O18">
-        <v>15.08403823134831</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>13.6007249933189</v>
+        <v>6.784931010154609</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.68518506739955</v>
+      </c>
+      <c r="R18">
+        <v>13.210294309041</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.90405322696084</v>
+        <v>25.47138978801247</v>
       </c>
       <c r="C19">
-        <v>19.32065417362914</v>
+        <v>19.91120431728158</v>
       </c>
       <c r="D19">
-        <v>2.849157898008642</v>
+        <v>2.811402608779757</v>
       </c>
       <c r="E19">
-        <v>6.741801756374875</v>
+        <v>6.799686605634031</v>
       </c>
       <c r="F19">
-        <v>38.72773385843679</v>
+        <v>35.49230399113787</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.788864950136287</v>
+        <v>3.686067063609476</v>
       </c>
       <c r="I19">
-        <v>3.329350410936784</v>
+        <v>3.167386242234295</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>24.50884845992217</v>
+        <v>21.94971161428221</v>
       </c>
       <c r="L19">
-        <v>5.976985084163442</v>
+        <v>16.88020039748636</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>15.78149930033431</v>
       </c>
       <c r="N19">
-        <v>6.938644937383335</v>
+        <v>5.995588519568984</v>
       </c>
       <c r="O19">
-        <v>15.65466425066801</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>13.76807531295647</v>
+        <v>7.256360190409186</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.22996661973278</v>
+      </c>
+      <c r="R19">
+        <v>13.28679660865727</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.28824583476256</v>
+        <v>26.67196477856408</v>
       </c>
       <c r="C20">
-        <v>20.08638392454575</v>
+        <v>20.75440523086107</v>
       </c>
       <c r="D20">
-        <v>2.83193810738765</v>
+        <v>2.783277772964352</v>
       </c>
       <c r="E20">
-        <v>6.503489793445881</v>
+        <v>6.564233646351757</v>
       </c>
       <c r="F20">
-        <v>41.88182649978481</v>
+        <v>38.20429417670294</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.501454311304748</v>
+        <v>2.388393973125798</v>
       </c>
       <c r="I20">
-        <v>3.132017994588062</v>
+        <v>3.000136410247954</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>26.30956689287993</v>
+        <v>23.38007796098177</v>
       </c>
       <c r="L20">
-        <v>5.939622922353663</v>
+        <v>17.91494171184989</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.93188726781472</v>
       </c>
       <c r="N20">
-        <v>7.730139148799211</v>
+        <v>5.922893850897941</v>
       </c>
       <c r="O20">
-        <v>16.79281409177113</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>14.00459755249351</v>
+        <v>8.082119155695997</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.31594523822762</v>
+      </c>
+      <c r="R20">
+        <v>13.36600426603194</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.0026229589737</v>
+        <v>28.25122894516922</v>
       </c>
       <c r="C21">
-        <v>21.42089859654044</v>
+        <v>22.1425644030215</v>
       </c>
       <c r="D21">
-        <v>2.970299439357963</v>
+        <v>2.881592776012001</v>
       </c>
       <c r="E21">
-        <v>6.73697059821568</v>
+        <v>6.776533605099338</v>
       </c>
       <c r="F21">
-        <v>43.68725480636682</v>
+        <v>39.67717912402816</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.082916099250522</v>
+        <v>2.009114307816388</v>
       </c>
       <c r="I21">
-        <v>2.793412601477784</v>
+        <v>2.707602417991521</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>27.13884428065057</v>
+        <v>23.94287093397054</v>
       </c>
       <c r="L21">
-        <v>6.060327101971541</v>
+        <v>18.13597495834009</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.60976426414394</v>
       </c>
       <c r="N21">
-        <v>8.030430327993173</v>
+        <v>6.035661432320045</v>
       </c>
       <c r="O21">
-        <v>17.64542806713687</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>13.85406789401853</v>
+        <v>8.394485311643784</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.12879153325773</v>
+      </c>
+      <c r="R21">
+        <v>13.16852299246296</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.06402538781908</v>
+        <v>29.23090132881777</v>
       </c>
       <c r="C22">
-        <v>22.23644656216434</v>
+        <v>22.98877129768826</v>
       </c>
       <c r="D22">
-        <v>3.067172740934299</v>
+        <v>2.950558320340964</v>
       </c>
       <c r="E22">
-        <v>6.900193613157191</v>
+        <v>6.925311717654023</v>
       </c>
       <c r="F22">
-        <v>44.77728261065386</v>
+        <v>40.56754944246167</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.826025296305761</v>
+        <v>1.777556883093574</v>
       </c>
       <c r="I22">
-        <v>2.567489220327255</v>
+        <v>2.51209733450056</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>27.64273180295144</v>
+        <v>24.28531499251405</v>
       </c>
       <c r="L22">
-        <v>6.139991344778291</v>
+        <v>18.25501087973973</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.04337693028421</v>
       </c>
       <c r="N22">
-        <v>8.18503860581213</v>
+        <v>6.111650108121086</v>
       </c>
       <c r="O22">
-        <v>18.1518497468339</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>13.74870761746415</v>
+        <v>8.555672614901827</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>17.61081128463034</v>
+      </c>
+      <c r="R22">
+        <v>13.03607106017477</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.52488537322905</v>
+        <v>28.73379964428264</v>
       </c>
       <c r="C23">
-        <v>21.79425902307207</v>
+        <v>22.53092194849255</v>
       </c>
       <c r="D23">
-        <v>3.020070195735646</v>
+        <v>2.915690730069477</v>
       </c>
       <c r="E23">
-        <v>6.814415366781458</v>
+        <v>6.847109747392036</v>
       </c>
       <c r="F23">
-        <v>44.24899091498224</v>
+        <v>40.14151778185228</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.960769549841715</v>
+        <v>1.89899825251143</v>
       </c>
       <c r="I23">
-        <v>2.674574282250695</v>
+        <v>2.599279189237534</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839352</v>
       </c>
       <c r="K23">
-        <v>27.41406225587106</v>
+        <v>24.1386735201507</v>
       </c>
       <c r="L23">
-        <v>6.098244576063259</v>
+        <v>18.21877014569555</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>17.83901539906681</v>
       </c>
       <c r="N23">
-        <v>8.099403398397682</v>
+        <v>6.071620831615108</v>
       </c>
       <c r="O23">
-        <v>17.88969175099634</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>13.81327750185972</v>
+        <v>8.466675458088732</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.36122666844126</v>
+      </c>
+      <c r="R23">
+        <v>13.11161074948998</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.36273816642116</v>
+        <v>26.73550458783097</v>
       </c>
       <c r="C24">
-        <v>20.07514412168284</v>
+        <v>20.74763261130706</v>
       </c>
       <c r="D24">
-        <v>2.832255598338186</v>
+        <v>2.780393541128493</v>
       </c>
       <c r="E24">
-        <v>6.484234643404903</v>
+        <v>6.545870233521542</v>
       </c>
       <c r="F24">
-        <v>42.13495307378754</v>
+        <v>38.43073602630798</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.481551903986968</v>
+        <v>2.369123003219374</v>
       </c>
       <c r="I24">
-        <v>3.110407369389861</v>
+        <v>2.975869763101907</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>26.47953831753023</v>
+        <v>23.52594913228398</v>
       </c>
       <c r="L24">
-        <v>5.937084349249857</v>
+        <v>18.02911737809254</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.03854318943584</v>
       </c>
       <c r="N24">
-        <v>7.775186540980227</v>
+        <v>5.917276596924567</v>
       </c>
       <c r="O24">
-        <v>16.85601833853034</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>14.04468762548033</v>
+        <v>8.129503995368973</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.37599101846659</v>
+      </c>
+      <c r="R24">
+        <v>13.3898702150441</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.85403235656237</v>
+        <v>24.40820554630411</v>
       </c>
       <c r="C25">
-        <v>18.08974154483179</v>
+        <v>18.6848252259211</v>
       </c>
       <c r="D25">
-        <v>2.624345540409943</v>
+        <v>2.633454176535839</v>
       </c>
       <c r="E25">
-        <v>6.119409719718969</v>
+        <v>6.212580764759072</v>
       </c>
       <c r="F25">
-        <v>39.79767225261524</v>
+        <v>36.54786883113143</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.060584822360427</v>
+        <v>2.893296532875277</v>
       </c>
       <c r="I25">
-        <v>3.598658677605516</v>
+        <v>3.400349800778387</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>25.46555958894622</v>
+        <v>22.86786461032768</v>
       </c>
       <c r="L25">
-        <v>5.758352641642136</v>
+        <v>17.80388443077516</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>16.22304057576259</v>
       </c>
       <c r="N25">
-        <v>7.414858226455968</v>
+        <v>5.745832591534842</v>
       </c>
       <c r="O25">
-        <v>15.67951755589085</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>14.29592387438594</v>
+        <v>7.755494171308238</v>
       </c>
       <c r="Q25">
+        <v>15.25196469219378</v>
+      </c>
+      <c r="R25">
+        <v>13.6909320809822</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
